--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekeehnen/Projects/Project-5-6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekeehnen/Documents/Project-5-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19400"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19280"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>A registered user is able to see visitors history ( recently seen products and purchaced items)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>database/interface</t>
+  </si>
+  <si>
+    <t>purchace</t>
+  </si>
+  <si>
+    <t>database/interface/purchase</t>
   </si>
 </sst>
 </file>
@@ -717,7 +741,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:G13"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -814,8 +838,12 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -848,8 +876,12 @@
       <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -882,8 +914,12 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -916,8 +952,12 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -949,6 +989,12 @@
       </c>
       <c r="B7" t="s">
         <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="12"/>
@@ -982,8 +1028,12 @@
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1016,6 +1066,12 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1046,6 +1102,12 @@
       </c>
       <c r="B10" t="s">
         <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="12"/>
@@ -1079,8 +1141,12 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1113,8 +1179,12 @@
       <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="9"/>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1147,8 +1217,12 @@
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1181,8 +1255,12 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -1214,6 +1292,12 @@
       <c r="B15" t="s">
         <v>27</v>
       </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1242,6 +1326,12 @@
       </c>
       <c r="B16" t="s">
         <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="12"/>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekeehnen/Projects/Project-5-6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edo Hooghiemster\Pictures\Project-5-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19400"/>
+    <workbookView xWindow="16800" yWindow="465" windowWidth="16800" windowHeight="19395" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
     <sheet name="SPRINT 1 BACKLOG" sheetId="2" r:id="rId2"/>
     <sheet name="SPRINT 2 BACKLOG" sheetId="3" r:id="rId3"/>
     <sheet name="SPRINT 3 BACKLOG" sheetId="4" r:id="rId4"/>
+    <sheet name="Requirements" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRODUCT BACKLOG'!$A$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -124,12 +125,69 @@
   <si>
     <t>A registered user is able to see visitors history ( recently seen products and purchaced items)</t>
   </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>A user is able to make a account with his/her email.</t>
+  </si>
+  <si>
+    <t>A user is able to filter and find products in the webshop.</t>
+  </si>
+  <si>
+    <t>A user is able to save a product in his/her favorite list.</t>
+  </si>
+  <si>
+    <t>A registered user is able to purchase a product.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view his/her purchase history.</t>
+  </si>
+  <si>
+    <t>The admin is able to delete products from the webshop.</t>
+  </si>
+  <si>
+    <t>The admin is able to update and change current products in the webshop.</t>
+  </si>
+  <si>
+    <t>The admin is able to add new products to the webshop.</t>
+  </si>
+  <si>
+    <t>The webshop must contain products entered by the admin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional </t>
+  </si>
+  <si>
+    <t>Non-Functional</t>
+  </si>
+  <si>
+    <t>The system is able to see al purchased products.</t>
+  </si>
+  <si>
+    <t>The webshop must delete the purchased products from the database.</t>
+  </si>
+  <si>
+    <t>The webshop must work an all platforms.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view information including the purchase (Order status, order confirmation etc.).</t>
+  </si>
+  <si>
+    <t>The system is able to record a registered user purchases on the webshop.</t>
+  </si>
+  <si>
+    <t>The admin is able to see the amount op products in stock.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -191,6 +249,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -296,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -397,9 +462,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -710,29 +778,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:G13"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="96.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="28" width="8.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -763,7 +831,7 @@
       <c r="AA1" s="12"/>
       <c r="AB1" s="12"/>
     </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -807,7 +875,7 @@
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
     </row>
-    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>0</v>
       </c>
@@ -841,7 +909,7 @@
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
     </row>
-    <row r="4" spans="1:28" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>1</v>
       </c>
@@ -875,7 +943,7 @@
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
     </row>
-    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -909,7 +977,7 @@
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
     </row>
-    <row r="6" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>3</v>
       </c>
@@ -943,7 +1011,7 @@
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -975,7 +1043,7 @@
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -1009,7 +1077,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
     </row>
-    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -1040,7 +1108,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
     </row>
-    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>7</v>
       </c>
@@ -1072,7 +1140,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
     </row>
-    <row r="11" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>8</v>
       </c>
@@ -1106,7 +1174,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
     </row>
-    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>9</v>
       </c>
@@ -1140,7 +1208,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>10</v>
       </c>
@@ -1174,7 +1242,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
     </row>
-    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>11</v>
       </c>
@@ -1207,7 +1275,7 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
     </row>
-    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>12</v>
       </c>
@@ -1236,7 +1304,7 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>13</v>
       </c>
@@ -1268,7 +1336,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
     </row>
-    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>14</v>
       </c>
@@ -1300,7 +1368,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>15</v>
       </c>
@@ -1332,7 +1400,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
     </row>
-    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>16</v>
       </c>
@@ -1364,7 +1432,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
     </row>
-    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>17</v>
       </c>
@@ -1396,7 +1464,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
     </row>
-    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>18</v>
       </c>
@@ -1425,7 +1493,7 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
     </row>
-    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>19</v>
       </c>
@@ -1457,7 +1525,7 @@
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
     </row>
-    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>20</v>
       </c>
@@ -1489,7 +1557,7 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
     </row>
-    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>21</v>
       </c>
@@ -1521,7 +1589,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
     </row>
-    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>22</v>
       </c>
@@ -1551,7 +1619,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
     </row>
-    <row r="26" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>23</v>
       </c>
@@ -1580,7 +1648,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
     </row>
-    <row r="27" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>24</v>
       </c>
@@ -1609,7 +1677,7 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
     </row>
-    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>25</v>
       </c>
@@ -1641,7 +1709,7 @@
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
     </row>
-    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1671,7 +1739,7 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
     </row>
-    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -1698,7 +1766,7 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
     </row>
-    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -1725,7 +1793,7 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
     </row>
-    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1755,7 +1823,7 @@
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
-    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1785,7 +1853,7 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
     </row>
-    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1815,7 +1883,7 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
     </row>
-    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1845,7 +1913,7 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
     </row>
-    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1875,7 +1943,7 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
     </row>
-    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1905,7 +1973,7 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
     </row>
-    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1935,7 +2003,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1965,7 +2033,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1995,7 +2063,7 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2025,7 +2093,7 @@
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2055,7 +2123,7 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2085,7 +2153,7 @@
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
     </row>
-    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2115,7 +2183,7 @@
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
     </row>
-    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2145,7 +2213,7 @@
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
     </row>
-    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2175,7 +2243,7 @@
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
     </row>
-    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2205,7 +2273,7 @@
       <c r="AA47" s="12"/>
       <c r="AB47" s="12"/>
     </row>
-    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2235,7 +2303,7 @@
       <c r="AA48" s="12"/>
       <c r="AB48" s="12"/>
     </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2265,7 +2333,7 @@
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
     </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2295,7 +2363,7 @@
       <c r="AA50" s="12"/>
       <c r="AB50" s="12"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2325,7 +2393,7 @@
       <c r="AA51" s="12"/>
       <c r="AB51" s="12"/>
     </row>
-    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2355,7 +2423,7 @@
       <c r="AA52" s="12"/>
       <c r="AB52" s="12"/>
     </row>
-    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2385,7 +2453,7 @@
       <c r="AA53" s="12"/>
       <c r="AB53" s="12"/>
     </row>
-    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2415,7 +2483,7 @@
       <c r="AA54" s="12"/>
       <c r="AB54" s="12"/>
     </row>
-    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2445,7 +2513,7 @@
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
     </row>
-    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2475,7 +2543,7 @@
       <c r="AA56" s="12"/>
       <c r="AB56" s="12"/>
     </row>
-    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2505,7 +2573,7 @@
       <c r="AA57" s="12"/>
       <c r="AB57" s="12"/>
     </row>
-    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2535,7 +2603,7 @@
       <c r="AA58" s="12"/>
       <c r="AB58" s="12"/>
     </row>
-    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -2565,7 +2633,7 @@
       <c r="AA59" s="12"/>
       <c r="AB59" s="12"/>
     </row>
-    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2595,7 +2663,7 @@
       <c r="AA60" s="12"/>
       <c r="AB60" s="12"/>
     </row>
-    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2625,7 +2693,7 @@
       <c r="AA61" s="12"/>
       <c r="AB61" s="12"/>
     </row>
-    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -2655,7 +2723,7 @@
       <c r="AA62" s="12"/>
       <c r="AB62" s="12"/>
     </row>
-    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2685,7 +2753,7 @@
       <c r="AA63" s="12"/>
       <c r="AB63" s="12"/>
     </row>
-    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -2715,7 +2783,7 @@
       <c r="AA64" s="12"/>
       <c r="AB64" s="12"/>
     </row>
-    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -2745,7 +2813,7 @@
       <c r="AA65" s="12"/>
       <c r="AB65" s="12"/>
     </row>
-    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -2775,7 +2843,7 @@
       <c r="AA66" s="12"/>
       <c r="AB66" s="12"/>
     </row>
-    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -2805,7 +2873,7 @@
       <c r="AA67" s="12"/>
       <c r="AB67" s="12"/>
     </row>
-    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -2835,7 +2903,7 @@
       <c r="AA68" s="12"/>
       <c r="AB68" s="12"/>
     </row>
-    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -2865,7 +2933,7 @@
       <c r="AA69" s="12"/>
       <c r="AB69" s="12"/>
     </row>
-    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2895,7 +2963,7 @@
       <c r="AA70" s="12"/>
       <c r="AB70" s="12"/>
     </row>
-    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -2925,7 +2993,7 @@
       <c r="AA71" s="12"/>
       <c r="AB71" s="12"/>
     </row>
-    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -2955,7 +3023,7 @@
       <c r="AA72" s="12"/>
       <c r="AB72" s="12"/>
     </row>
-    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -2985,7 +3053,7 @@
       <c r="AA73" s="12"/>
       <c r="AB73" s="12"/>
     </row>
-    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3015,7 +3083,7 @@
       <c r="AA74" s="12"/>
       <c r="AB74" s="12"/>
     </row>
-    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -3045,7 +3113,7 @@
       <c r="AA75" s="12"/>
       <c r="AB75" s="12"/>
     </row>
-    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3075,7 +3143,7 @@
       <c r="AA76" s="12"/>
       <c r="AB76" s="12"/>
     </row>
-    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -3105,7 +3173,7 @@
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
     </row>
-    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3135,7 +3203,7 @@
       <c r="AA78" s="12"/>
       <c r="AB78" s="12"/>
     </row>
-    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3165,7 +3233,7 @@
       <c r="AA79" s="12"/>
       <c r="AB79" s="12"/>
     </row>
-    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3195,7 +3263,7 @@
       <c r="AA80" s="12"/>
       <c r="AB80" s="12"/>
     </row>
-    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3225,7 +3293,7 @@
       <c r="AA81" s="12"/>
       <c r="AB81" s="12"/>
     </row>
-    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3255,7 +3323,7 @@
       <c r="AA82" s="12"/>
       <c r="AB82" s="12"/>
     </row>
-    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3285,7 +3353,7 @@
       <c r="AA83" s="12"/>
       <c r="AB83" s="12"/>
     </row>
-    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3315,7 +3383,7 @@
       <c r="AA84" s="12"/>
       <c r="AB84" s="12"/>
     </row>
-    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -3345,7 +3413,7 @@
       <c r="AA85" s="12"/>
       <c r="AB85" s="12"/>
     </row>
-    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -3375,7 +3443,7 @@
       <c r="AA86" s="12"/>
       <c r="AB86" s="12"/>
     </row>
-    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -3405,7 +3473,7 @@
       <c r="AA87" s="12"/>
       <c r="AB87" s="12"/>
     </row>
-    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -3435,7 +3503,7 @@
       <c r="AA88" s="12"/>
       <c r="AB88" s="12"/>
     </row>
-    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -3465,7 +3533,7 @@
       <c r="AA89" s="12"/>
       <c r="AB89" s="12"/>
     </row>
-    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -3495,7 +3563,7 @@
       <c r="AA90" s="12"/>
       <c r="AB90" s="12"/>
     </row>
-    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -3525,7 +3593,7 @@
       <c r="AA91" s="12"/>
       <c r="AB91" s="12"/>
     </row>
-    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -3555,7 +3623,7 @@
       <c r="AA92" s="12"/>
       <c r="AB92" s="12"/>
     </row>
-    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -3585,7 +3653,7 @@
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
     </row>
-    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3615,7 +3683,7 @@
       <c r="AA94" s="12"/>
       <c r="AB94" s="12"/>
     </row>
-    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -3645,7 +3713,7 @@
       <c r="AA95" s="12"/>
       <c r="AB95" s="12"/>
     </row>
-    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -3675,7 +3743,7 @@
       <c r="AA96" s="12"/>
       <c r="AB96" s="12"/>
     </row>
-    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3705,7 +3773,7 @@
       <c r="AA97" s="12"/>
       <c r="AB97" s="12"/>
     </row>
-    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -3735,7 +3803,7 @@
       <c r="AA98" s="12"/>
       <c r="AB98" s="12"/>
     </row>
-    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -3765,7 +3833,7 @@
       <c r="AA99" s="12"/>
       <c r="AB99" s="12"/>
     </row>
-    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -3795,7 +3863,7 @@
       <c r="AA100" s="12"/>
       <c r="AB100" s="12"/>
     </row>
-    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -3825,7 +3893,7 @@
       <c r="AA101" s="12"/>
       <c r="AB101" s="12"/>
     </row>
-    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -3855,7 +3923,7 @@
       <c r="AA102" s="12"/>
       <c r="AB102" s="12"/>
     </row>
-    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -3885,7 +3953,7 @@
       <c r="AA103" s="12"/>
       <c r="AB103" s="12"/>
     </row>
-    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -3915,7 +3983,7 @@
       <c r="AA104" s="12"/>
       <c r="AB104" s="12"/>
     </row>
-    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -3945,7 +4013,7 @@
       <c r="AA105" s="12"/>
       <c r="AB105" s="12"/>
     </row>
-    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -3975,7 +4043,7 @@
       <c r="AA106" s="12"/>
       <c r="AB106" s="12"/>
     </row>
-    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4005,7 +4073,7 @@
       <c r="AA107" s="12"/>
       <c r="AB107" s="12"/>
     </row>
-    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4035,7 +4103,7 @@
       <c r="AA108" s="12"/>
       <c r="AB108" s="12"/>
     </row>
-    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4065,7 +4133,7 @@
       <c r="AA109" s="12"/>
       <c r="AB109" s="12"/>
     </row>
-    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4095,7 +4163,7 @@
       <c r="AA110" s="12"/>
       <c r="AB110" s="12"/>
     </row>
-    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4125,7 +4193,7 @@
       <c r="AA111" s="12"/>
       <c r="AB111" s="12"/>
     </row>
-    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4155,7 +4223,7 @@
       <c r="AA112" s="12"/>
       <c r="AB112" s="12"/>
     </row>
-    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4185,7 +4253,7 @@
       <c r="AA113" s="12"/>
       <c r="AB113" s="12"/>
     </row>
-    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -4215,7 +4283,7 @@
       <c r="AA114" s="12"/>
       <c r="AB114" s="12"/>
     </row>
-    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4245,7 +4313,7 @@
       <c r="AA115" s="12"/>
       <c r="AB115" s="12"/>
     </row>
-    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -4275,7 +4343,7 @@
       <c r="AA116" s="12"/>
       <c r="AB116" s="12"/>
     </row>
-    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -4305,7 +4373,7 @@
       <c r="AA117" s="12"/>
       <c r="AB117" s="12"/>
     </row>
-    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -4335,7 +4403,7 @@
       <c r="AA118" s="12"/>
       <c r="AB118" s="12"/>
     </row>
-    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -4365,7 +4433,7 @@
       <c r="AA119" s="12"/>
       <c r="AB119" s="12"/>
     </row>
-    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -4395,7 +4463,7 @@
       <c r="AA120" s="12"/>
       <c r="AB120" s="12"/>
     </row>
-    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -4425,7 +4493,7 @@
       <c r="AA121" s="12"/>
       <c r="AB121" s="12"/>
     </row>
-    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -4455,7 +4523,7 @@
       <c r="AA122" s="12"/>
       <c r="AB122" s="12"/>
     </row>
-    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -4485,7 +4553,7 @@
       <c r="AA123" s="12"/>
       <c r="AB123" s="12"/>
     </row>
-    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -4515,7 +4583,7 @@
       <c r="AA124" s="12"/>
       <c r="AB124" s="12"/>
     </row>
-    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -4545,7 +4613,7 @@
       <c r="AA125" s="12"/>
       <c r="AB125" s="12"/>
     </row>
-    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -4575,7 +4643,7 @@
       <c r="AA126" s="12"/>
       <c r="AB126" s="12"/>
     </row>
-    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -4605,7 +4673,7 @@
       <c r="AA127" s="12"/>
       <c r="AB127" s="12"/>
     </row>
-    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -4635,7 +4703,7 @@
       <c r="AA128" s="12"/>
       <c r="AB128" s="12"/>
     </row>
-    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -4665,7 +4733,7 @@
       <c r="AA129" s="12"/>
       <c r="AB129" s="12"/>
     </row>
-    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -4695,7 +4763,7 @@
       <c r="AA130" s="12"/>
       <c r="AB130" s="12"/>
     </row>
-    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -4725,7 +4793,7 @@
       <c r="AA131" s="12"/>
       <c r="AB131" s="12"/>
     </row>
-    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -4755,7 +4823,7 @@
       <c r="AA132" s="12"/>
       <c r="AB132" s="12"/>
     </row>
-    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -4785,7 +4853,7 @@
       <c r="AA133" s="12"/>
       <c r="AB133" s="12"/>
     </row>
-    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -4815,7 +4883,7 @@
       <c r="AA134" s="12"/>
       <c r="AB134" s="12"/>
     </row>
-    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -4845,7 +4913,7 @@
       <c r="AA135" s="12"/>
       <c r="AB135" s="12"/>
     </row>
-    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -4875,7 +4943,7 @@
       <c r="AA136" s="12"/>
       <c r="AB136" s="12"/>
     </row>
-    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -4905,7 +4973,7 @@
       <c r="AA137" s="12"/>
       <c r="AB137" s="12"/>
     </row>
-    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -4935,7 +5003,7 @@
       <c r="AA138" s="12"/>
       <c r="AB138" s="12"/>
     </row>
-    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -4965,7 +5033,7 @@
       <c r="AA139" s="12"/>
       <c r="AB139" s="12"/>
     </row>
-    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -4995,7 +5063,7 @@
       <c r="AA140" s="12"/>
       <c r="AB140" s="12"/>
     </row>
-    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -5025,7 +5093,7 @@
       <c r="AA141" s="12"/>
       <c r="AB141" s="12"/>
     </row>
-    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -5055,7 +5123,7 @@
       <c r="AA142" s="12"/>
       <c r="AB142" s="12"/>
     </row>
-    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -5085,7 +5153,7 @@
       <c r="AA143" s="12"/>
       <c r="AB143" s="12"/>
     </row>
-    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5115,7 +5183,7 @@
       <c r="AA144" s="12"/>
       <c r="AB144" s="12"/>
     </row>
-    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -5145,7 +5213,7 @@
       <c r="AA145" s="12"/>
       <c r="AB145" s="12"/>
     </row>
-    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5175,7 +5243,7 @@
       <c r="AA146" s="12"/>
       <c r="AB146" s="12"/>
     </row>
-    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5205,7 +5273,7 @@
       <c r="AA147" s="12"/>
       <c r="AB147" s="12"/>
     </row>
-    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5235,7 +5303,7 @@
       <c r="AA148" s="12"/>
       <c r="AB148" s="12"/>
     </row>
-    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5265,7 +5333,7 @@
       <c r="AA149" s="12"/>
       <c r="AB149" s="12"/>
     </row>
-    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -5295,7 +5363,7 @@
       <c r="AA150" s="12"/>
       <c r="AB150" s="12"/>
     </row>
-    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -5325,7 +5393,7 @@
       <c r="AA151" s="12"/>
       <c r="AB151" s="12"/>
     </row>
-    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -5355,7 +5423,7 @@
       <c r="AA152" s="12"/>
       <c r="AB152" s="12"/>
     </row>
-    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -5385,7 +5453,7 @@
       <c r="AA153" s="12"/>
       <c r="AB153" s="12"/>
     </row>
-    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -5415,7 +5483,7 @@
       <c r="AA154" s="12"/>
       <c r="AB154" s="12"/>
     </row>
-    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -5445,7 +5513,7 @@
       <c r="AA155" s="12"/>
       <c r="AB155" s="12"/>
     </row>
-    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -5475,7 +5543,7 @@
       <c r="AA156" s="12"/>
       <c r="AB156" s="12"/>
     </row>
-    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -5505,7 +5573,7 @@
       <c r="AA157" s="12"/>
       <c r="AB157" s="12"/>
     </row>
-    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -5535,7 +5603,7 @@
       <c r="AA158" s="12"/>
       <c r="AB158" s="12"/>
     </row>
-    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -5565,7 +5633,7 @@
       <c r="AA159" s="12"/>
       <c r="AB159" s="12"/>
     </row>
-    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -5595,7 +5663,7 @@
       <c r="AA160" s="12"/>
       <c r="AB160" s="12"/>
     </row>
-    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -5625,7 +5693,7 @@
       <c r="AA161" s="12"/>
       <c r="AB161" s="12"/>
     </row>
-    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -5655,7 +5723,7 @@
       <c r="AA162" s="12"/>
       <c r="AB162" s="12"/>
     </row>
-    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -5685,7 +5753,7 @@
       <c r="AA163" s="12"/>
       <c r="AB163" s="12"/>
     </row>
-    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -5715,7 +5783,7 @@
       <c r="AA164" s="12"/>
       <c r="AB164" s="12"/>
     </row>
-    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -5745,7 +5813,7 @@
       <c r="AA165" s="12"/>
       <c r="AB165" s="12"/>
     </row>
-    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -5775,7 +5843,7 @@
       <c r="AA166" s="12"/>
       <c r="AB166" s="12"/>
     </row>
-    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -5805,7 +5873,7 @@
       <c r="AA167" s="12"/>
       <c r="AB167" s="12"/>
     </row>
-    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -5835,7 +5903,7 @@
       <c r="AA168" s="12"/>
       <c r="AB168" s="12"/>
     </row>
-    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -5865,7 +5933,7 @@
       <c r="AA169" s="12"/>
       <c r="AB169" s="12"/>
     </row>
-    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -5895,7 +5963,7 @@
       <c r="AA170" s="12"/>
       <c r="AB170" s="12"/>
     </row>
-    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -5925,7 +5993,7 @@
       <c r="AA171" s="12"/>
       <c r="AB171" s="12"/>
     </row>
-    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -5955,7 +6023,7 @@
       <c r="AA172" s="12"/>
       <c r="AB172" s="12"/>
     </row>
-    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -5985,7 +6053,7 @@
       <c r="AA173" s="12"/>
       <c r="AB173" s="12"/>
     </row>
-    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -6015,7 +6083,7 @@
       <c r="AA174" s="12"/>
       <c r="AB174" s="12"/>
     </row>
-    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -6045,7 +6113,7 @@
       <c r="AA175" s="12"/>
       <c r="AB175" s="12"/>
     </row>
-    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -6075,7 +6143,7 @@
       <c r="AA176" s="12"/>
       <c r="AB176" s="12"/>
     </row>
-    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -6105,7 +6173,7 @@
       <c r="AA177" s="12"/>
       <c r="AB177" s="12"/>
     </row>
-    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -6135,7 +6203,7 @@
       <c r="AA178" s="12"/>
       <c r="AB178" s="12"/>
     </row>
-    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -6165,7 +6233,7 @@
       <c r="AA179" s="12"/>
       <c r="AB179" s="12"/>
     </row>
-    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -6195,7 +6263,7 @@
       <c r="AA180" s="12"/>
       <c r="AB180" s="12"/>
     </row>
-    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -6225,7 +6293,7 @@
       <c r="AA181" s="12"/>
       <c r="AB181" s="12"/>
     </row>
-    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -6255,7 +6323,7 @@
       <c r="AA182" s="12"/>
       <c r="AB182" s="12"/>
     </row>
-    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -6285,7 +6353,7 @@
       <c r="AA183" s="12"/>
       <c r="AB183" s="12"/>
     </row>
-    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -6315,7 +6383,7 @@
       <c r="AA184" s="12"/>
       <c r="AB184" s="12"/>
     </row>
-    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -6345,7 +6413,7 @@
       <c r="AA185" s="12"/>
       <c r="AB185" s="12"/>
     </row>
-    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -6375,7 +6443,7 @@
       <c r="AA186" s="12"/>
       <c r="AB186" s="12"/>
     </row>
-    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -6405,7 +6473,7 @@
       <c r="AA187" s="12"/>
       <c r="AB187" s="12"/>
     </row>
-    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -6435,7 +6503,7 @@
       <c r="AA188" s="12"/>
       <c r="AB188" s="12"/>
     </row>
-    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -6465,7 +6533,7 @@
       <c r="AA189" s="12"/>
       <c r="AB189" s="12"/>
     </row>
-    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -6495,7 +6563,7 @@
       <c r="AA190" s="12"/>
       <c r="AB190" s="12"/>
     </row>
-    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -6525,7 +6593,7 @@
       <c r="AA191" s="12"/>
       <c r="AB191" s="12"/>
     </row>
-    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -6555,7 +6623,7 @@
       <c r="AA192" s="12"/>
       <c r="AB192" s="12"/>
     </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -6585,7 +6653,7 @@
       <c r="AA193" s="12"/>
       <c r="AB193" s="12"/>
     </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -6615,7 +6683,7 @@
       <c r="AA194" s="12"/>
       <c r="AB194" s="12"/>
     </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -6645,7 +6713,7 @@
       <c r="AA195" s="12"/>
       <c r="AB195" s="12"/>
     </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -6675,7 +6743,7 @@
       <c r="AA196" s="12"/>
       <c r="AB196" s="12"/>
     </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -6705,7 +6773,7 @@
       <c r="AA197" s="12"/>
       <c r="AB197" s="12"/>
     </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -6735,7 +6803,7 @@
       <c r="AA198" s="12"/>
       <c r="AB198" s="12"/>
     </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -6765,7 +6833,7 @@
       <c r="AA199" s="12"/>
       <c r="AB199" s="12"/>
     </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -6795,7 +6863,7 @@
       <c r="AA200" s="12"/>
       <c r="AB200" s="12"/>
     </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -6825,7 +6893,7 @@
       <c r="AA201" s="12"/>
       <c r="AB201" s="12"/>
     </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -6855,7 +6923,7 @@
       <c r="AA202" s="12"/>
       <c r="AB202" s="12"/>
     </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -6885,7 +6953,7 @@
       <c r="AA203" s="12"/>
       <c r="AB203" s="12"/>
     </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -6915,7 +6983,7 @@
       <c r="AA204" s="12"/>
       <c r="AB204" s="12"/>
     </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -6945,7 +7013,7 @@
       <c r="AA205" s="12"/>
       <c r="AB205" s="12"/>
     </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -6975,7 +7043,7 @@
       <c r="AA206" s="12"/>
       <c r="AB206" s="12"/>
     </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -7005,7 +7073,7 @@
       <c r="AA207" s="12"/>
       <c r="AB207" s="12"/>
     </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -7035,7 +7103,7 @@
       <c r="AA208" s="12"/>
       <c r="AB208" s="12"/>
     </row>
-    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -7065,7 +7133,7 @@
       <c r="AA209" s="12"/>
       <c r="AB209" s="12"/>
     </row>
-    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -7095,7 +7163,7 @@
       <c r="AA210" s="12"/>
       <c r="AB210" s="12"/>
     </row>
-    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -7125,7 +7193,7 @@
       <c r="AA211" s="12"/>
       <c r="AB211" s="12"/>
     </row>
-    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -7155,7 +7223,7 @@
       <c r="AA212" s="12"/>
       <c r="AB212" s="12"/>
     </row>
-    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -7185,7 +7253,7 @@
       <c r="AA213" s="12"/>
       <c r="AB213" s="12"/>
     </row>
-    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -7215,7 +7283,7 @@
       <c r="AA214" s="12"/>
       <c r="AB214" s="12"/>
     </row>
-    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -7245,7 +7313,7 @@
       <c r="AA215" s="12"/>
       <c r="AB215" s="12"/>
     </row>
-    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -7275,7 +7343,7 @@
       <c r="AA216" s="12"/>
       <c r="AB216" s="12"/>
     </row>
-    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -7305,7 +7373,7 @@
       <c r="AA217" s="12"/>
       <c r="AB217" s="12"/>
     </row>
-    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -7335,7 +7403,7 @@
       <c r="AA218" s="12"/>
       <c r="AB218" s="12"/>
     </row>
-    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -7365,7 +7433,7 @@
       <c r="AA219" s="12"/>
       <c r="AB219" s="12"/>
     </row>
-    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -7395,7 +7463,7 @@
       <c r="AA220" s="12"/>
       <c r="AB220" s="12"/>
     </row>
-    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -7425,7 +7493,7 @@
       <c r="AA221" s="12"/>
       <c r="AB221" s="12"/>
     </row>
-    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -7455,7 +7523,7 @@
       <c r="AA222" s="12"/>
       <c r="AB222" s="12"/>
     </row>
-    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -7485,7 +7553,7 @@
       <c r="AA223" s="12"/>
       <c r="AB223" s="12"/>
     </row>
-    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -7515,7 +7583,7 @@
       <c r="AA224" s="12"/>
       <c r="AB224" s="12"/>
     </row>
-    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -7545,7 +7613,7 @@
       <c r="AA225" s="12"/>
       <c r="AB225" s="12"/>
     </row>
-    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -7575,7 +7643,7 @@
       <c r="AA226" s="12"/>
       <c r="AB226" s="12"/>
     </row>
-    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -7605,7 +7673,7 @@
       <c r="AA227" s="12"/>
       <c r="AB227" s="12"/>
     </row>
-    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -7635,7 +7703,7 @@
       <c r="AA228" s="12"/>
       <c r="AB228" s="12"/>
     </row>
-    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -7665,7 +7733,7 @@
       <c r="AA229" s="12"/>
       <c r="AB229" s="12"/>
     </row>
-    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -7695,7 +7763,7 @@
       <c r="AA230" s="12"/>
       <c r="AB230" s="12"/>
     </row>
-    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -7725,7 +7793,7 @@
       <c r="AA231" s="12"/>
       <c r="AB231" s="12"/>
     </row>
-    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -7755,7 +7823,7 @@
       <c r="AA232" s="12"/>
       <c r="AB232" s="12"/>
     </row>
-    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -7785,7 +7853,7 @@
       <c r="AA233" s="12"/>
       <c r="AB233" s="12"/>
     </row>
-    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -7815,7 +7883,7 @@
       <c r="AA234" s="12"/>
       <c r="AB234" s="12"/>
     </row>
-    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -7845,7 +7913,7 @@
       <c r="AA235" s="12"/>
       <c r="AB235" s="12"/>
     </row>
-    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -7875,7 +7943,7 @@
       <c r="AA236" s="12"/>
       <c r="AB236" s="12"/>
     </row>
-    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -7905,7 +7973,7 @@
       <c r="AA237" s="12"/>
       <c r="AB237" s="12"/>
     </row>
-    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -7935,7 +8003,7 @@
       <c r="AA238" s="12"/>
       <c r="AB238" s="12"/>
     </row>
-    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -7965,7 +8033,7 @@
       <c r="AA239" s="12"/>
       <c r="AB239" s="12"/>
     </row>
-    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -7995,7 +8063,7 @@
       <c r="AA240" s="12"/>
       <c r="AB240" s="12"/>
     </row>
-    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -8025,7 +8093,7 @@
       <c r="AA241" s="12"/>
       <c r="AB241" s="12"/>
     </row>
-    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -8055,7 +8123,7 @@
       <c r="AA242" s="12"/>
       <c r="AB242" s="12"/>
     </row>
-    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -8085,7 +8153,7 @@
       <c r="AA243" s="12"/>
       <c r="AB243" s="12"/>
     </row>
-    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -8115,7 +8183,7 @@
       <c r="AA244" s="12"/>
       <c r="AB244" s="12"/>
     </row>
-    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -8145,7 +8213,7 @@
       <c r="AA245" s="12"/>
       <c r="AB245" s="12"/>
     </row>
-    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -8175,7 +8243,7 @@
       <c r="AA246" s="12"/>
       <c r="AB246" s="12"/>
     </row>
-    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -8205,7 +8273,7 @@
       <c r="AA247" s="12"/>
       <c r="AB247" s="12"/>
     </row>
-    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -8235,7 +8303,7 @@
       <c r="AA248" s="12"/>
       <c r="AB248" s="12"/>
     </row>
-    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -8265,7 +8333,7 @@
       <c r="AA249" s="12"/>
       <c r="AB249" s="12"/>
     </row>
-    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -8295,7 +8363,7 @@
       <c r="AA250" s="12"/>
       <c r="AB250" s="12"/>
     </row>
-    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -8325,7 +8393,7 @@
       <c r="AA251" s="12"/>
       <c r="AB251" s="12"/>
     </row>
-    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -8355,7 +8423,7 @@
       <c r="AA252" s="12"/>
       <c r="AB252" s="12"/>
     </row>
-    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -8385,7 +8453,7 @@
       <c r="AA253" s="12"/>
       <c r="AB253" s="12"/>
     </row>
-    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -8415,7 +8483,7 @@
       <c r="AA254" s="12"/>
       <c r="AB254" s="12"/>
     </row>
-    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -8445,7 +8513,7 @@
       <c r="AA255" s="12"/>
       <c r="AB255" s="12"/>
     </row>
-    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -8475,7 +8543,7 @@
       <c r="AA256" s="12"/>
       <c r="AB256" s="12"/>
     </row>
-    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -8505,7 +8573,7 @@
       <c r="AA257" s="12"/>
       <c r="AB257" s="12"/>
     </row>
-    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -8535,7 +8603,7 @@
       <c r="AA258" s="12"/>
       <c r="AB258" s="12"/>
     </row>
-    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -8565,7 +8633,7 @@
       <c r="AA259" s="12"/>
       <c r="AB259" s="12"/>
     </row>
-    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -8595,7 +8663,7 @@
       <c r="AA260" s="12"/>
       <c r="AB260" s="12"/>
     </row>
-    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -8625,7 +8693,7 @@
       <c r="AA261" s="12"/>
       <c r="AB261" s="12"/>
     </row>
-    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -8655,7 +8723,7 @@
       <c r="AA262" s="12"/>
       <c r="AB262" s="12"/>
     </row>
-    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -8685,7 +8753,7 @@
       <c r="AA263" s="12"/>
       <c r="AB263" s="12"/>
     </row>
-    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -8715,7 +8783,7 @@
       <c r="AA264" s="12"/>
       <c r="AB264" s="12"/>
     </row>
-    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -8745,7 +8813,7 @@
       <c r="AA265" s="12"/>
       <c r="AB265" s="12"/>
     </row>
-    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -8775,7 +8843,7 @@
       <c r="AA266" s="12"/>
       <c r="AB266" s="12"/>
     </row>
-    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -8805,7 +8873,7 @@
       <c r="AA267" s="12"/>
       <c r="AB267" s="12"/>
     </row>
-    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -8835,7 +8903,7 @@
       <c r="AA268" s="12"/>
       <c r="AB268" s="12"/>
     </row>
-    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -8865,7 +8933,7 @@
       <c r="AA269" s="12"/>
       <c r="AB269" s="12"/>
     </row>
-    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -8895,7 +8963,7 @@
       <c r="AA270" s="12"/>
       <c r="AB270" s="12"/>
     </row>
-    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -8925,7 +8993,7 @@
       <c r="AA271" s="12"/>
       <c r="AB271" s="12"/>
     </row>
-    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -8955,7 +9023,7 @@
       <c r="AA272" s="12"/>
       <c r="AB272" s="12"/>
     </row>
-    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -8985,7 +9053,7 @@
       <c r="AA273" s="12"/>
       <c r="AB273" s="12"/>
     </row>
-    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -9015,7 +9083,7 @@
       <c r="AA274" s="12"/>
       <c r="AB274" s="12"/>
     </row>
-    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -9045,7 +9113,7 @@
       <c r="AA275" s="12"/>
       <c r="AB275" s="12"/>
     </row>
-    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -9075,7 +9143,7 @@
       <c r="AA276" s="12"/>
       <c r="AB276" s="12"/>
     </row>
-    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -9105,7 +9173,7 @@
       <c r="AA277" s="12"/>
       <c r="AB277" s="12"/>
     </row>
-    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -9135,7 +9203,7 @@
       <c r="AA278" s="12"/>
       <c r="AB278" s="12"/>
     </row>
-    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -9165,7 +9233,7 @@
       <c r="AA279" s="12"/>
       <c r="AB279" s="12"/>
     </row>
-    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -9195,7 +9263,7 @@
       <c r="AA280" s="12"/>
       <c r="AB280" s="12"/>
     </row>
-    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -9225,7 +9293,7 @@
       <c r="AA281" s="12"/>
       <c r="AB281" s="12"/>
     </row>
-    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -9255,7 +9323,7 @@
       <c r="AA282" s="12"/>
       <c r="AB282" s="12"/>
     </row>
-    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -9285,7 +9353,7 @@
       <c r="AA283" s="12"/>
       <c r="AB283" s="12"/>
     </row>
-    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -9315,7 +9383,7 @@
       <c r="AA284" s="12"/>
       <c r="AB284" s="12"/>
     </row>
-    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -9345,7 +9413,7 @@
       <c r="AA285" s="12"/>
       <c r="AB285" s="12"/>
     </row>
-    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -9375,7 +9443,7 @@
       <c r="AA286" s="12"/>
       <c r="AB286" s="12"/>
     </row>
-    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -9405,7 +9473,7 @@
       <c r="AA287" s="12"/>
       <c r="AB287" s="12"/>
     </row>
-    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -9435,7 +9503,7 @@
       <c r="AA288" s="12"/>
       <c r="AB288" s="12"/>
     </row>
-    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -9465,7 +9533,7 @@
       <c r="AA289" s="12"/>
       <c r="AB289" s="12"/>
     </row>
-    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -9495,7 +9563,7 @@
       <c r="AA290" s="12"/>
       <c r="AB290" s="12"/>
     </row>
-    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -9525,7 +9593,7 @@
       <c r="AA291" s="12"/>
       <c r="AB291" s="12"/>
     </row>
-    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -9555,7 +9623,7 @@
       <c r="AA292" s="12"/>
       <c r="AB292" s="12"/>
     </row>
-    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -9585,7 +9653,7 @@
       <c r="AA293" s="12"/>
       <c r="AB293" s="12"/>
     </row>
-    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -9615,7 +9683,7 @@
       <c r="AA294" s="12"/>
       <c r="AB294" s="12"/>
     </row>
-    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -9645,7 +9713,7 @@
       <c r="AA295" s="12"/>
       <c r="AB295" s="12"/>
     </row>
-    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -9675,7 +9743,7 @@
       <c r="AA296" s="12"/>
       <c r="AB296" s="12"/>
     </row>
-    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -9705,7 +9773,7 @@
       <c r="AA297" s="12"/>
       <c r="AB297" s="12"/>
     </row>
-    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -9735,7 +9803,7 @@
       <c r="AA298" s="12"/>
       <c r="AB298" s="12"/>
     </row>
-    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -9765,7 +9833,7 @@
       <c r="AA299" s="12"/>
       <c r="AB299" s="12"/>
     </row>
-    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -9795,7 +9863,7 @@
       <c r="AA300" s="12"/>
       <c r="AB300" s="12"/>
     </row>
-    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -9825,7 +9893,7 @@
       <c r="AA301" s="12"/>
       <c r="AB301" s="12"/>
     </row>
-    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -9855,7 +9923,7 @@
       <c r="AA302" s="12"/>
       <c r="AB302" s="12"/>
     </row>
-    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -9885,7 +9953,7 @@
       <c r="AA303" s="12"/>
       <c r="AB303" s="12"/>
     </row>
-    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -9915,7 +9983,7 @@
       <c r="AA304" s="12"/>
       <c r="AB304" s="12"/>
     </row>
-    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -9945,7 +10013,7 @@
       <c r="AA305" s="12"/>
       <c r="AB305" s="12"/>
     </row>
-    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -9975,7 +10043,7 @@
       <c r="AA306" s="12"/>
       <c r="AB306" s="12"/>
     </row>
-    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -10005,7 +10073,7 @@
       <c r="AA307" s="12"/>
       <c r="AB307" s="12"/>
     </row>
-    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -10035,7 +10103,7 @@
       <c r="AA308" s="12"/>
       <c r="AB308" s="12"/>
     </row>
-    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -10065,7 +10133,7 @@
       <c r="AA309" s="12"/>
       <c r="AB309" s="12"/>
     </row>
-    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -10095,7 +10163,7 @@
       <c r="AA310" s="12"/>
       <c r="AB310" s="12"/>
     </row>
-    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -10125,7 +10193,7 @@
       <c r="AA311" s="12"/>
       <c r="AB311" s="12"/>
     </row>
-    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -10155,7 +10223,7 @@
       <c r="AA312" s="12"/>
       <c r="AB312" s="12"/>
     </row>
-    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -10185,7 +10253,7 @@
       <c r="AA313" s="12"/>
       <c r="AB313" s="12"/>
     </row>
-    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -10215,7 +10283,7 @@
       <c r="AA314" s="12"/>
       <c r="AB314" s="12"/>
     </row>
-    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -10245,7 +10313,7 @@
       <c r="AA315" s="12"/>
       <c r="AB315" s="12"/>
     </row>
-    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -10275,7 +10343,7 @@
       <c r="AA316" s="12"/>
       <c r="AB316" s="12"/>
     </row>
-    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -10305,7 +10373,7 @@
       <c r="AA317" s="12"/>
       <c r="AB317" s="12"/>
     </row>
-    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -10335,7 +10403,7 @@
       <c r="AA318" s="12"/>
       <c r="AB318" s="12"/>
     </row>
-    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -10365,7 +10433,7 @@
       <c r="AA319" s="12"/>
       <c r="AB319" s="12"/>
     </row>
-    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -10395,7 +10463,7 @@
       <c r="AA320" s="12"/>
       <c r="AB320" s="12"/>
     </row>
-    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -10425,7 +10493,7 @@
       <c r="AA321" s="12"/>
       <c r="AB321" s="12"/>
     </row>
-    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -10455,7 +10523,7 @@
       <c r="AA322" s="12"/>
       <c r="AB322" s="12"/>
     </row>
-    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -10485,7 +10553,7 @@
       <c r="AA323" s="12"/>
       <c r="AB323" s="12"/>
     </row>
-    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -10515,7 +10583,7 @@
       <c r="AA324" s="12"/>
       <c r="AB324" s="12"/>
     </row>
-    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -10545,7 +10613,7 @@
       <c r="AA325" s="12"/>
       <c r="AB325" s="12"/>
     </row>
-    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -10575,7 +10643,7 @@
       <c r="AA326" s="12"/>
       <c r="AB326" s="12"/>
     </row>
-    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -10605,7 +10673,7 @@
       <c r="AA327" s="12"/>
       <c r="AB327" s="12"/>
     </row>
-    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -10635,7 +10703,7 @@
       <c r="AA328" s="12"/>
       <c r="AB328" s="12"/>
     </row>
-    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -10665,7 +10733,7 @@
       <c r="AA329" s="12"/>
       <c r="AB329" s="12"/>
     </row>
-    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="9"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -10695,7 +10763,7 @@
       <c r="AA330" s="12"/>
       <c r="AB330" s="12"/>
     </row>
-    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -10725,7 +10793,7 @@
       <c r="AA331" s="12"/>
       <c r="AB331" s="12"/>
     </row>
-    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -10755,7 +10823,7 @@
       <c r="AA332" s="12"/>
       <c r="AB332" s="12"/>
     </row>
-    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -10785,7 +10853,7 @@
       <c r="AA333" s="12"/>
       <c r="AB333" s="12"/>
     </row>
-    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -10815,7 +10883,7 @@
       <c r="AA334" s="12"/>
       <c r="AB334" s="12"/>
     </row>
-    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -10845,7 +10913,7 @@
       <c r="AA335" s="12"/>
       <c r="AB335" s="12"/>
     </row>
-    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -10875,7 +10943,7 @@
       <c r="AA336" s="12"/>
       <c r="AB336" s="12"/>
     </row>
-    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -10905,7 +10973,7 @@
       <c r="AA337" s="12"/>
       <c r="AB337" s="12"/>
     </row>
-    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -10935,7 +11003,7 @@
       <c r="AA338" s="12"/>
       <c r="AB338" s="12"/>
     </row>
-    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="9"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -10965,7 +11033,7 @@
       <c r="AA339" s="12"/>
       <c r="AB339" s="12"/>
     </row>
-    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -10995,7 +11063,7 @@
       <c r="AA340" s="12"/>
       <c r="AB340" s="12"/>
     </row>
-    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -11025,7 +11093,7 @@
       <c r="AA341" s="12"/>
       <c r="AB341" s="12"/>
     </row>
-    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -11055,7 +11123,7 @@
       <c r="AA342" s="12"/>
       <c r="AB342" s="12"/>
     </row>
-    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -11085,7 +11153,7 @@
       <c r="AA343" s="12"/>
       <c r="AB343" s="12"/>
     </row>
-    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -11115,7 +11183,7 @@
       <c r="AA344" s="12"/>
       <c r="AB344" s="12"/>
     </row>
-    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -11145,7 +11213,7 @@
       <c r="AA345" s="12"/>
       <c r="AB345" s="12"/>
     </row>
-    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="9"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -11175,7 +11243,7 @@
       <c r="AA346" s="12"/>
       <c r="AB346" s="12"/>
     </row>
-    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -11205,7 +11273,7 @@
       <c r="AA347" s="12"/>
       <c r="AB347" s="12"/>
     </row>
-    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -11235,7 +11303,7 @@
       <c r="AA348" s="12"/>
       <c r="AB348" s="12"/>
     </row>
-    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -11265,7 +11333,7 @@
       <c r="AA349" s="12"/>
       <c r="AB349" s="12"/>
     </row>
-    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -11295,7 +11363,7 @@
       <c r="AA350" s="12"/>
       <c r="AB350" s="12"/>
     </row>
-    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -11325,7 +11393,7 @@
       <c r="AA351" s="12"/>
       <c r="AB351" s="12"/>
     </row>
-    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -11355,7 +11423,7 @@
       <c r="AA352" s="12"/>
       <c r="AB352" s="12"/>
     </row>
-    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="9"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -11385,7 +11453,7 @@
       <c r="AA353" s="12"/>
       <c r="AB353" s="12"/>
     </row>
-    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -11415,7 +11483,7 @@
       <c r="AA354" s="12"/>
       <c r="AB354" s="12"/>
     </row>
-    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -11445,7 +11513,7 @@
       <c r="AA355" s="12"/>
       <c r="AB355" s="12"/>
     </row>
-    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -11475,7 +11543,7 @@
       <c r="AA356" s="12"/>
       <c r="AB356" s="12"/>
     </row>
-    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -11505,7 +11573,7 @@
       <c r="AA357" s="12"/>
       <c r="AB357" s="12"/>
     </row>
-    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -11535,7 +11603,7 @@
       <c r="AA358" s="12"/>
       <c r="AB358" s="12"/>
     </row>
-    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -11565,7 +11633,7 @@
       <c r="AA359" s="12"/>
       <c r="AB359" s="12"/>
     </row>
-    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -11595,7 +11663,7 @@
       <c r="AA360" s="12"/>
       <c r="AB360" s="12"/>
     </row>
-    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -11625,7 +11693,7 @@
       <c r="AA361" s="12"/>
       <c r="AB361" s="12"/>
     </row>
-    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -11655,7 +11723,7 @@
       <c r="AA362" s="12"/>
       <c r="AB362" s="12"/>
     </row>
-    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -11685,7 +11753,7 @@
       <c r="AA363" s="12"/>
       <c r="AB363" s="12"/>
     </row>
-    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -11715,7 +11783,7 @@
       <c r="AA364" s="12"/>
       <c r="AB364" s="12"/>
     </row>
-    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -11745,7 +11813,7 @@
       <c r="AA365" s="12"/>
       <c r="AB365" s="12"/>
     </row>
-    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -11775,7 +11843,7 @@
       <c r="AA366" s="12"/>
       <c r="AB366" s="12"/>
     </row>
-    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="9"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -11805,7 +11873,7 @@
       <c r="AA367" s="12"/>
       <c r="AB367" s="12"/>
     </row>
-    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -11835,7 +11903,7 @@
       <c r="AA368" s="12"/>
       <c r="AB368" s="12"/>
     </row>
-    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -11865,7 +11933,7 @@
       <c r="AA369" s="12"/>
       <c r="AB369" s="12"/>
     </row>
-    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -11895,7 +11963,7 @@
       <c r="AA370" s="12"/>
       <c r="AB370" s="12"/>
     </row>
-    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -11925,7 +11993,7 @@
       <c r="AA371" s="12"/>
       <c r="AB371" s="12"/>
     </row>
-    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -11955,7 +12023,7 @@
       <c r="AA372" s="12"/>
       <c r="AB372" s="12"/>
     </row>
-    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -11985,7 +12053,7 @@
       <c r="AA373" s="12"/>
       <c r="AB373" s="12"/>
     </row>
-    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="9"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -12015,7 +12083,7 @@
       <c r="AA374" s="12"/>
       <c r="AB374" s="12"/>
     </row>
-    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -12045,7 +12113,7 @@
       <c r="AA375" s="12"/>
       <c r="AB375" s="12"/>
     </row>
-    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="9"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -12075,7 +12143,7 @@
       <c r="AA376" s="12"/>
       <c r="AB376" s="12"/>
     </row>
-    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -12105,7 +12173,7 @@
       <c r="AA377" s="12"/>
       <c r="AB377" s="12"/>
     </row>
-    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="9"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -12135,7 +12203,7 @@
       <c r="AA378" s="12"/>
       <c r="AB378" s="12"/>
     </row>
-    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -12165,7 +12233,7 @@
       <c r="AA379" s="12"/>
       <c r="AB379" s="12"/>
     </row>
-    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -12195,7 +12263,7 @@
       <c r="AA380" s="12"/>
       <c r="AB380" s="12"/>
     </row>
-    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -12225,7 +12293,7 @@
       <c r="AA381" s="12"/>
       <c r="AB381" s="12"/>
     </row>
-    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -12255,7 +12323,7 @@
       <c r="AA382" s="12"/>
       <c r="AB382" s="12"/>
     </row>
-    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -12285,7 +12353,7 @@
       <c r="AA383" s="12"/>
       <c r="AB383" s="12"/>
     </row>
-    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -12315,7 +12383,7 @@
       <c r="AA384" s="12"/>
       <c r="AB384" s="12"/>
     </row>
-    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -12345,7 +12413,7 @@
       <c r="AA385" s="12"/>
       <c r="AB385" s="12"/>
     </row>
-    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -12375,7 +12443,7 @@
       <c r="AA386" s="12"/>
       <c r="AB386" s="12"/>
     </row>
-    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -12405,7 +12473,7 @@
       <c r="AA387" s="12"/>
       <c r="AB387" s="12"/>
     </row>
-    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -12435,7 +12503,7 @@
       <c r="AA388" s="12"/>
       <c r="AB388" s="12"/>
     </row>
-    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -12465,7 +12533,7 @@
       <c r="AA389" s="12"/>
       <c r="AB389" s="12"/>
     </row>
-    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -12495,7 +12563,7 @@
       <c r="AA390" s="12"/>
       <c r="AB390" s="12"/>
     </row>
-    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -12525,7 +12593,7 @@
       <c r="AA391" s="12"/>
       <c r="AB391" s="12"/>
     </row>
-    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -12555,7 +12623,7 @@
       <c r="AA392" s="12"/>
       <c r="AB392" s="12"/>
     </row>
-    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -12585,7 +12653,7 @@
       <c r="AA393" s="12"/>
       <c r="AB393" s="12"/>
     </row>
-    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -12615,7 +12683,7 @@
       <c r="AA394" s="12"/>
       <c r="AB394" s="12"/>
     </row>
-    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -12645,7 +12713,7 @@
       <c r="AA395" s="12"/>
       <c r="AB395" s="12"/>
     </row>
-    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -12675,7 +12743,7 @@
       <c r="AA396" s="12"/>
       <c r="AB396" s="12"/>
     </row>
-    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -12705,7 +12773,7 @@
       <c r="AA397" s="12"/>
       <c r="AB397" s="12"/>
     </row>
-    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -12735,7 +12803,7 @@
       <c r="AA398" s="12"/>
       <c r="AB398" s="12"/>
     </row>
-    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -12765,7 +12833,7 @@
       <c r="AA399" s="12"/>
       <c r="AB399" s="12"/>
     </row>
-    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -12795,7 +12863,7 @@
       <c r="AA400" s="12"/>
       <c r="AB400" s="12"/>
     </row>
-    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -12825,7 +12893,7 @@
       <c r="AA401" s="12"/>
       <c r="AB401" s="12"/>
     </row>
-    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -12855,7 +12923,7 @@
       <c r="AA402" s="12"/>
       <c r="AB402" s="12"/>
     </row>
-    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -12885,7 +12953,7 @@
       <c r="AA403" s="12"/>
       <c r="AB403" s="12"/>
     </row>
-    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -12915,7 +12983,7 @@
       <c r="AA404" s="12"/>
       <c r="AB404" s="12"/>
     </row>
-    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -12945,7 +13013,7 @@
       <c r="AA405" s="12"/>
       <c r="AB405" s="12"/>
     </row>
-    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -12975,7 +13043,7 @@
       <c r="AA406" s="12"/>
       <c r="AB406" s="12"/>
     </row>
-    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -13005,7 +13073,7 @@
       <c r="AA407" s="12"/>
       <c r="AB407" s="12"/>
     </row>
-    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -13035,7 +13103,7 @@
       <c r="AA408" s="12"/>
       <c r="AB408" s="12"/>
     </row>
-    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -13065,7 +13133,7 @@
       <c r="AA409" s="12"/>
       <c r="AB409" s="12"/>
     </row>
-    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -13095,7 +13163,7 @@
       <c r="AA410" s="12"/>
       <c r="AB410" s="12"/>
     </row>
-    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -13125,7 +13193,7 @@
       <c r="AA411" s="12"/>
       <c r="AB411" s="12"/>
     </row>
-    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -13155,7 +13223,7 @@
       <c r="AA412" s="12"/>
       <c r="AB412" s="12"/>
     </row>
-    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -13185,7 +13253,7 @@
       <c r="AA413" s="12"/>
       <c r="AB413" s="12"/>
     </row>
-    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -13215,7 +13283,7 @@
       <c r="AA414" s="12"/>
       <c r="AB414" s="12"/>
     </row>
-    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -13245,7 +13313,7 @@
       <c r="AA415" s="12"/>
       <c r="AB415" s="12"/>
     </row>
-    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -13275,7 +13343,7 @@
       <c r="AA416" s="12"/>
       <c r="AB416" s="12"/>
     </row>
-    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="9"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -13305,7 +13373,7 @@
       <c r="AA417" s="12"/>
       <c r="AB417" s="12"/>
     </row>
-    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -13335,7 +13403,7 @@
       <c r="AA418" s="12"/>
       <c r="AB418" s="12"/>
     </row>
-    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -13365,7 +13433,7 @@
       <c r="AA419" s="12"/>
       <c r="AB419" s="12"/>
     </row>
-    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -13395,7 +13463,7 @@
       <c r="AA420" s="12"/>
       <c r="AB420" s="12"/>
     </row>
-    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -13425,7 +13493,7 @@
       <c r="AA421" s="12"/>
       <c r="AB421" s="12"/>
     </row>
-    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -13455,7 +13523,7 @@
       <c r="AA422" s="12"/>
       <c r="AB422" s="12"/>
     </row>
-    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="9"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -13485,7 +13553,7 @@
       <c r="AA423" s="12"/>
       <c r="AB423" s="12"/>
     </row>
-    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="9"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -13515,7 +13583,7 @@
       <c r="AA424" s="12"/>
       <c r="AB424" s="12"/>
     </row>
-    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -13545,7 +13613,7 @@
       <c r="AA425" s="12"/>
       <c r="AB425" s="12"/>
     </row>
-    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="9"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -13575,7 +13643,7 @@
       <c r="AA426" s="12"/>
       <c r="AB426" s="12"/>
     </row>
-    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -13605,7 +13673,7 @@
       <c r="AA427" s="12"/>
       <c r="AB427" s="12"/>
     </row>
-    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -13635,7 +13703,7 @@
       <c r="AA428" s="12"/>
       <c r="AB428" s="12"/>
     </row>
-    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -13665,7 +13733,7 @@
       <c r="AA429" s="12"/>
       <c r="AB429" s="12"/>
     </row>
-    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -13695,7 +13763,7 @@
       <c r="AA430" s="12"/>
       <c r="AB430" s="12"/>
     </row>
-    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -13725,7 +13793,7 @@
       <c r="AA431" s="12"/>
       <c r="AB431" s="12"/>
     </row>
-    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -13755,7 +13823,7 @@
       <c r="AA432" s="12"/>
       <c r="AB432" s="12"/>
     </row>
-    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -13785,7 +13853,7 @@
       <c r="AA433" s="12"/>
       <c r="AB433" s="12"/>
     </row>
-    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -13815,7 +13883,7 @@
       <c r="AA434" s="12"/>
       <c r="AB434" s="12"/>
     </row>
-    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="9"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -13845,7 +13913,7 @@
       <c r="AA435" s="12"/>
       <c r="AB435" s="12"/>
     </row>
-    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -13875,7 +13943,7 @@
       <c r="AA436" s="12"/>
       <c r="AB436" s="12"/>
     </row>
-    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -13905,7 +13973,7 @@
       <c r="AA437" s="12"/>
       <c r="AB437" s="12"/>
     </row>
-    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -13935,7 +14003,7 @@
       <c r="AA438" s="12"/>
       <c r="AB438" s="12"/>
     </row>
-    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -13965,7 +14033,7 @@
       <c r="AA439" s="12"/>
       <c r="AB439" s="12"/>
     </row>
-    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -13995,7 +14063,7 @@
       <c r="AA440" s="12"/>
       <c r="AB440" s="12"/>
     </row>
-    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -14025,7 +14093,7 @@
       <c r="AA441" s="12"/>
       <c r="AB441" s="12"/>
     </row>
-    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -14055,7 +14123,7 @@
       <c r="AA442" s="12"/>
       <c r="AB442" s="12"/>
     </row>
-    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -14085,7 +14153,7 @@
       <c r="AA443" s="12"/>
       <c r="AB443" s="12"/>
     </row>
-    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="9"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -14115,7 +14183,7 @@
       <c r="AA444" s="12"/>
       <c r="AB444" s="12"/>
     </row>
-    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -14145,7 +14213,7 @@
       <c r="AA445" s="12"/>
       <c r="AB445" s="12"/>
     </row>
-    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -14175,7 +14243,7 @@
       <c r="AA446" s="12"/>
       <c r="AB446" s="12"/>
     </row>
-    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -14205,7 +14273,7 @@
       <c r="AA447" s="12"/>
       <c r="AB447" s="12"/>
     </row>
-    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -14235,7 +14303,7 @@
       <c r="AA448" s="12"/>
       <c r="AB448" s="12"/>
     </row>
-    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -14265,7 +14333,7 @@
       <c r="AA449" s="12"/>
       <c r="AB449" s="12"/>
     </row>
-    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -14295,7 +14363,7 @@
       <c r="AA450" s="12"/>
       <c r="AB450" s="12"/>
     </row>
-    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="9"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -14325,7 +14393,7 @@
       <c r="AA451" s="12"/>
       <c r="AB451" s="12"/>
     </row>
-    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -14355,7 +14423,7 @@
       <c r="AA452" s="12"/>
       <c r="AB452" s="12"/>
     </row>
-    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -14385,7 +14453,7 @@
       <c r="AA453" s="12"/>
       <c r="AB453" s="12"/>
     </row>
-    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -14415,7 +14483,7 @@
       <c r="AA454" s="12"/>
       <c r="AB454" s="12"/>
     </row>
-    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -14445,7 +14513,7 @@
       <c r="AA455" s="12"/>
       <c r="AB455" s="12"/>
     </row>
-    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -14475,7 +14543,7 @@
       <c r="AA456" s="12"/>
       <c r="AB456" s="12"/>
     </row>
-    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -14505,7 +14573,7 @@
       <c r="AA457" s="12"/>
       <c r="AB457" s="12"/>
     </row>
-    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="9"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -14535,7 +14603,7 @@
       <c r="AA458" s="12"/>
       <c r="AB458" s="12"/>
     </row>
-    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -14565,7 +14633,7 @@
       <c r="AA459" s="12"/>
       <c r="AB459" s="12"/>
     </row>
-    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -14595,7 +14663,7 @@
       <c r="AA460" s="12"/>
       <c r="AB460" s="12"/>
     </row>
-    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -14625,7 +14693,7 @@
       <c r="AA461" s="12"/>
       <c r="AB461" s="12"/>
     </row>
-    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -14655,7 +14723,7 @@
       <c r="AA462" s="12"/>
       <c r="AB462" s="12"/>
     </row>
-    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -14685,7 +14753,7 @@
       <c r="AA463" s="12"/>
       <c r="AB463" s="12"/>
     </row>
-    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -14715,7 +14783,7 @@
       <c r="AA464" s="12"/>
       <c r="AB464" s="12"/>
     </row>
-    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="9"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -14745,7 +14813,7 @@
       <c r="AA465" s="12"/>
       <c r="AB465" s="12"/>
     </row>
-    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -14775,7 +14843,7 @@
       <c r="AA466" s="12"/>
       <c r="AB466" s="12"/>
     </row>
-    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -14805,7 +14873,7 @@
       <c r="AA467" s="12"/>
       <c r="AB467" s="12"/>
     </row>
-    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -14835,7 +14903,7 @@
       <c r="AA468" s="12"/>
       <c r="AB468" s="12"/>
     </row>
-    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -14865,7 +14933,7 @@
       <c r="AA469" s="12"/>
       <c r="AB469" s="12"/>
     </row>
-    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -14895,7 +14963,7 @@
       <c r="AA470" s="12"/>
       <c r="AB470" s="12"/>
     </row>
-    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -14925,7 +14993,7 @@
       <c r="AA471" s="12"/>
       <c r="AB471" s="12"/>
     </row>
-    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="9"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -14955,7 +15023,7 @@
       <c r="AA472" s="12"/>
       <c r="AB472" s="12"/>
     </row>
-    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -14985,7 +15053,7 @@
       <c r="AA473" s="12"/>
       <c r="AB473" s="12"/>
     </row>
-    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -15015,7 +15083,7 @@
       <c r="AA474" s="12"/>
       <c r="AB474" s="12"/>
     </row>
-    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -15045,7 +15113,7 @@
       <c r="AA475" s="12"/>
       <c r="AB475" s="12"/>
     </row>
-    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -15075,7 +15143,7 @@
       <c r="AA476" s="12"/>
       <c r="AB476" s="12"/>
     </row>
-    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -15105,7 +15173,7 @@
       <c r="AA477" s="12"/>
       <c r="AB477" s="12"/>
     </row>
-    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -15135,7 +15203,7 @@
       <c r="AA478" s="12"/>
       <c r="AB478" s="12"/>
     </row>
-    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="9"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -15165,7 +15233,7 @@
       <c r="AA479" s="12"/>
       <c r="AB479" s="12"/>
     </row>
-    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -15195,7 +15263,7 @@
       <c r="AA480" s="12"/>
       <c r="AB480" s="12"/>
     </row>
-    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -15225,7 +15293,7 @@
       <c r="AA481" s="12"/>
       <c r="AB481" s="12"/>
     </row>
-    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -15255,7 +15323,7 @@
       <c r="AA482" s="12"/>
       <c r="AB482" s="12"/>
     </row>
-    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -15285,7 +15353,7 @@
       <c r="AA483" s="12"/>
       <c r="AB483" s="12"/>
     </row>
-    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -15315,7 +15383,7 @@
       <c r="AA484" s="12"/>
       <c r="AB484" s="12"/>
     </row>
-    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -15345,7 +15413,7 @@
       <c r="AA485" s="12"/>
       <c r="AB485" s="12"/>
     </row>
-    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="9"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -15375,7 +15443,7 @@
       <c r="AA486" s="12"/>
       <c r="AB486" s="12"/>
     </row>
-    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -15405,7 +15473,7 @@
       <c r="AA487" s="12"/>
       <c r="AB487" s="12"/>
     </row>
-    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -15435,7 +15503,7 @@
       <c r="AA488" s="12"/>
       <c r="AB488" s="12"/>
     </row>
-    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -15465,7 +15533,7 @@
       <c r="AA489" s="12"/>
       <c r="AB489" s="12"/>
     </row>
-    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -15495,7 +15563,7 @@
       <c r="AA490" s="12"/>
       <c r="AB490" s="12"/>
     </row>
-    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -15525,7 +15593,7 @@
       <c r="AA491" s="12"/>
       <c r="AB491" s="12"/>
     </row>
-    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -15555,7 +15623,7 @@
       <c r="AA492" s="12"/>
       <c r="AB492" s="12"/>
     </row>
-    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="9"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -15585,7 +15653,7 @@
       <c r="AA493" s="12"/>
       <c r="AB493" s="12"/>
     </row>
-    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -15615,7 +15683,7 @@
       <c r="AA494" s="12"/>
       <c r="AB494" s="12"/>
     </row>
-    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -15645,7 +15713,7 @@
       <c r="AA495" s="12"/>
       <c r="AB495" s="12"/>
     </row>
-    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -15675,7 +15743,7 @@
       <c r="AA496" s="12"/>
       <c r="AB496" s="12"/>
     </row>
-    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -15705,7 +15773,7 @@
       <c r="AA497" s="12"/>
       <c r="AB497" s="12"/>
     </row>
-    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -15735,7 +15803,7 @@
       <c r="AA498" s="12"/>
       <c r="AB498" s="12"/>
     </row>
-    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -15765,7 +15833,7 @@
       <c r="AA499" s="12"/>
       <c r="AB499" s="12"/>
     </row>
-    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="9"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -15795,7 +15863,7 @@
       <c r="AA500" s="12"/>
       <c r="AB500" s="12"/>
     </row>
-    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -15825,7 +15893,7 @@
       <c r="AA501" s="12"/>
       <c r="AB501" s="12"/>
     </row>
-    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -15855,7 +15923,7 @@
       <c r="AA502" s="12"/>
       <c r="AB502" s="12"/>
     </row>
-    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -15885,7 +15953,7 @@
       <c r="AA503" s="12"/>
       <c r="AB503" s="12"/>
     </row>
-    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -15915,7 +15983,7 @@
       <c r="AA504" s="12"/>
       <c r="AB504" s="12"/>
     </row>
-    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -15945,7 +16013,7 @@
       <c r="AA505" s="12"/>
       <c r="AB505" s="12"/>
     </row>
-    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -15975,7 +16043,7 @@
       <c r="AA506" s="12"/>
       <c r="AB506" s="12"/>
     </row>
-    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="9"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -16005,7 +16073,7 @@
       <c r="AA507" s="12"/>
       <c r="AB507" s="12"/>
     </row>
-    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -16035,7 +16103,7 @@
       <c r="AA508" s="12"/>
       <c r="AB508" s="12"/>
     </row>
-    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -16065,7 +16133,7 @@
       <c r="AA509" s="12"/>
       <c r="AB509" s="12"/>
     </row>
-    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -16095,7 +16163,7 @@
       <c r="AA510" s="12"/>
       <c r="AB510" s="12"/>
     </row>
-    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -16125,7 +16193,7 @@
       <c r="AA511" s="12"/>
       <c r="AB511" s="12"/>
     </row>
-    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -16155,7 +16223,7 @@
       <c r="AA512" s="12"/>
       <c r="AB512" s="12"/>
     </row>
-    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -16185,7 +16253,7 @@
       <c r="AA513" s="12"/>
       <c r="AB513" s="12"/>
     </row>
-    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="9"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -16215,7 +16283,7 @@
       <c r="AA514" s="12"/>
       <c r="AB514" s="12"/>
     </row>
-    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -16245,7 +16313,7 @@
       <c r="AA515" s="12"/>
       <c r="AB515" s="12"/>
     </row>
-    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -16275,7 +16343,7 @@
       <c r="AA516" s="12"/>
       <c r="AB516" s="12"/>
     </row>
-    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -16305,7 +16373,7 @@
       <c r="AA517" s="12"/>
       <c r="AB517" s="12"/>
     </row>
-    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -16335,7 +16403,7 @@
       <c r="AA518" s="12"/>
       <c r="AB518" s="12"/>
     </row>
-    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -16365,7 +16433,7 @@
       <c r="AA519" s="12"/>
       <c r="AB519" s="12"/>
     </row>
-    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -16395,7 +16463,7 @@
       <c r="AA520" s="12"/>
       <c r="AB520" s="12"/>
     </row>
-    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="9"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -16425,7 +16493,7 @@
       <c r="AA521" s="12"/>
       <c r="AB521" s="12"/>
     </row>
-    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -16455,7 +16523,7 @@
       <c r="AA522" s="12"/>
       <c r="AB522" s="12"/>
     </row>
-    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="9"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -16485,7 +16553,7 @@
       <c r="AA523" s="12"/>
       <c r="AB523" s="12"/>
     </row>
-    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -16515,7 +16583,7 @@
       <c r="AA524" s="12"/>
       <c r="AB524" s="12"/>
     </row>
-    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -16545,7 +16613,7 @@
       <c r="AA525" s="12"/>
       <c r="AB525" s="12"/>
     </row>
-    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -16575,7 +16643,7 @@
       <c r="AA526" s="12"/>
       <c r="AB526" s="12"/>
     </row>
-    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -16605,7 +16673,7 @@
       <c r="AA527" s="12"/>
       <c r="AB527" s="12"/>
     </row>
-    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -16635,7 +16703,7 @@
       <c r="AA528" s="12"/>
       <c r="AB528" s="12"/>
     </row>
-    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -16665,7 +16733,7 @@
       <c r="AA529" s="12"/>
       <c r="AB529" s="12"/>
     </row>
-    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="9"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -16695,7 +16763,7 @@
       <c r="AA530" s="12"/>
       <c r="AB530" s="12"/>
     </row>
-    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -16725,7 +16793,7 @@
       <c r="AA531" s="12"/>
       <c r="AB531" s="12"/>
     </row>
-    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -16755,7 +16823,7 @@
       <c r="AA532" s="12"/>
       <c r="AB532" s="12"/>
     </row>
-    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -16785,7 +16853,7 @@
       <c r="AA533" s="12"/>
       <c r="AB533" s="12"/>
     </row>
-    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -16815,7 +16883,7 @@
       <c r="AA534" s="12"/>
       <c r="AB534" s="12"/>
     </row>
-    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -16845,7 +16913,7 @@
       <c r="AA535" s="12"/>
       <c r="AB535" s="12"/>
     </row>
-    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -16875,7 +16943,7 @@
       <c r="AA536" s="12"/>
       <c r="AB536" s="12"/>
     </row>
-    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -16905,7 +16973,7 @@
       <c r="AA537" s="12"/>
       <c r="AB537" s="12"/>
     </row>
-    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="9"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -16935,7 +17003,7 @@
       <c r="AA538" s="12"/>
       <c r="AB538" s="12"/>
     </row>
-    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -16965,7 +17033,7 @@
       <c r="AA539" s="12"/>
       <c r="AB539" s="12"/>
     </row>
-    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -16995,7 +17063,7 @@
       <c r="AA540" s="12"/>
       <c r="AB540" s="12"/>
     </row>
-    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -17025,7 +17093,7 @@
       <c r="AA541" s="12"/>
       <c r="AB541" s="12"/>
     </row>
-    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -17055,7 +17123,7 @@
       <c r="AA542" s="12"/>
       <c r="AB542" s="12"/>
     </row>
-    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -17085,7 +17153,7 @@
       <c r="AA543" s="12"/>
       <c r="AB543" s="12"/>
     </row>
-    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -17115,7 +17183,7 @@
       <c r="AA544" s="12"/>
       <c r="AB544" s="12"/>
     </row>
-    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="9"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -17145,7 +17213,7 @@
       <c r="AA545" s="12"/>
       <c r="AB545" s="12"/>
     </row>
-    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="9"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -17175,7 +17243,7 @@
       <c r="AA546" s="12"/>
       <c r="AB546" s="12"/>
     </row>
-    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="9"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -17205,7 +17273,7 @@
       <c r="AA547" s="12"/>
       <c r="AB547" s="12"/>
     </row>
-    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -17235,7 +17303,7 @@
       <c r="AA548" s="12"/>
       <c r="AB548" s="12"/>
     </row>
-    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -17265,7 +17333,7 @@
       <c r="AA549" s="12"/>
       <c r="AB549" s="12"/>
     </row>
-    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -17295,7 +17363,7 @@
       <c r="AA550" s="12"/>
       <c r="AB550" s="12"/>
     </row>
-    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -17325,7 +17393,7 @@
       <c r="AA551" s="12"/>
       <c r="AB551" s="12"/>
     </row>
-    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -17355,7 +17423,7 @@
       <c r="AA552" s="12"/>
       <c r="AB552" s="12"/>
     </row>
-    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -17385,7 +17453,7 @@
       <c r="AA553" s="12"/>
       <c r="AB553" s="12"/>
     </row>
-    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -17415,7 +17483,7 @@
       <c r="AA554" s="12"/>
       <c r="AB554" s="12"/>
     </row>
-    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -17445,7 +17513,7 @@
       <c r="AA555" s="12"/>
       <c r="AB555" s="12"/>
     </row>
-    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -17475,7 +17543,7 @@
       <c r="AA556" s="12"/>
       <c r="AB556" s="12"/>
     </row>
-    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -17505,7 +17573,7 @@
       <c r="AA557" s="12"/>
       <c r="AB557" s="12"/>
     </row>
-    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -17535,7 +17603,7 @@
       <c r="AA558" s="12"/>
       <c r="AB558" s="12"/>
     </row>
-    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -17565,7 +17633,7 @@
       <c r="AA559" s="12"/>
       <c r="AB559" s="12"/>
     </row>
-    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -17595,7 +17663,7 @@
       <c r="AA560" s="12"/>
       <c r="AB560" s="12"/>
     </row>
-    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -17625,7 +17693,7 @@
       <c r="AA561" s="12"/>
       <c r="AB561" s="12"/>
     </row>
-    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -17655,7 +17723,7 @@
       <c r="AA562" s="12"/>
       <c r="AB562" s="12"/>
     </row>
-    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -17685,7 +17753,7 @@
       <c r="AA563" s="12"/>
       <c r="AB563" s="12"/>
     </row>
-    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -17715,7 +17783,7 @@
       <c r="AA564" s="12"/>
       <c r="AB564" s="12"/>
     </row>
-    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -17745,7 +17813,7 @@
       <c r="AA565" s="12"/>
       <c r="AB565" s="12"/>
     </row>
-    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -17775,7 +17843,7 @@
       <c r="AA566" s="12"/>
       <c r="AB566" s="12"/>
     </row>
-    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -17805,7 +17873,7 @@
       <c r="AA567" s="12"/>
       <c r="AB567" s="12"/>
     </row>
-    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -17835,7 +17903,7 @@
       <c r="AA568" s="12"/>
       <c r="AB568" s="12"/>
     </row>
-    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -17865,7 +17933,7 @@
       <c r="AA569" s="12"/>
       <c r="AB569" s="12"/>
     </row>
-    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -17895,7 +17963,7 @@
       <c r="AA570" s="12"/>
       <c r="AB570" s="12"/>
     </row>
-    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -17925,7 +17993,7 @@
       <c r="AA571" s="12"/>
       <c r="AB571" s="12"/>
     </row>
-    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -17955,7 +18023,7 @@
       <c r="AA572" s="12"/>
       <c r="AB572" s="12"/>
     </row>
-    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -17985,7 +18053,7 @@
       <c r="AA573" s="12"/>
       <c r="AB573" s="12"/>
     </row>
-    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -18015,7 +18083,7 @@
       <c r="AA574" s="12"/>
       <c r="AB574" s="12"/>
     </row>
-    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -18045,7 +18113,7 @@
       <c r="AA575" s="12"/>
       <c r="AB575" s="12"/>
     </row>
-    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -18075,7 +18143,7 @@
       <c r="AA576" s="12"/>
       <c r="AB576" s="12"/>
     </row>
-    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -18105,7 +18173,7 @@
       <c r="AA577" s="12"/>
       <c r="AB577" s="12"/>
     </row>
-    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -18135,7 +18203,7 @@
       <c r="AA578" s="12"/>
       <c r="AB578" s="12"/>
     </row>
-    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -18165,7 +18233,7 @@
       <c r="AA579" s="12"/>
       <c r="AB579" s="12"/>
     </row>
-    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -18195,7 +18263,7 @@
       <c r="AA580" s="12"/>
       <c r="AB580" s="12"/>
     </row>
-    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -18225,7 +18293,7 @@
       <c r="AA581" s="12"/>
       <c r="AB581" s="12"/>
     </row>
-    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="9"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -18255,7 +18323,7 @@
       <c r="AA582" s="12"/>
       <c r="AB582" s="12"/>
     </row>
-    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="9"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -18285,7 +18353,7 @@
       <c r="AA583" s="12"/>
       <c r="AB583" s="12"/>
     </row>
-    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -18315,7 +18383,7 @@
       <c r="AA584" s="12"/>
       <c r="AB584" s="12"/>
     </row>
-    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="9"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -18345,7 +18413,7 @@
       <c r="AA585" s="12"/>
       <c r="AB585" s="12"/>
     </row>
-    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="9"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -18375,7 +18443,7 @@
       <c r="AA586" s="12"/>
       <c r="AB586" s="12"/>
     </row>
-    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -18405,7 +18473,7 @@
       <c r="AA587" s="12"/>
       <c r="AB587" s="12"/>
     </row>
-    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="9"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -18435,7 +18503,7 @@
       <c r="AA588" s="12"/>
       <c r="AB588" s="12"/>
     </row>
-    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="9"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -18465,7 +18533,7 @@
       <c r="AA589" s="12"/>
       <c r="AB589" s="12"/>
     </row>
-    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -18495,7 +18563,7 @@
       <c r="AA590" s="12"/>
       <c r="AB590" s="12"/>
     </row>
-    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="9"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -18525,7 +18593,7 @@
       <c r="AA591" s="12"/>
       <c r="AB591" s="12"/>
     </row>
-    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="9"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -18555,7 +18623,7 @@
       <c r="AA592" s="12"/>
       <c r="AB592" s="12"/>
     </row>
-    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="9"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -18585,7 +18653,7 @@
       <c r="AA593" s="12"/>
       <c r="AB593" s="12"/>
     </row>
-    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="9"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -18615,7 +18683,7 @@
       <c r="AA594" s="12"/>
       <c r="AB594" s="12"/>
     </row>
-    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="9"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -18645,7 +18713,7 @@
       <c r="AA595" s="12"/>
       <c r="AB595" s="12"/>
     </row>
-    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="9"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -18675,7 +18743,7 @@
       <c r="AA596" s="12"/>
       <c r="AB596" s="12"/>
     </row>
-    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="9"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -18705,7 +18773,7 @@
       <c r="AA597" s="12"/>
       <c r="AB597" s="12"/>
     </row>
-    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="9"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -18735,7 +18803,7 @@
       <c r="AA598" s="12"/>
       <c r="AB598" s="12"/>
     </row>
-    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="9"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -18765,7 +18833,7 @@
       <c r="AA599" s="12"/>
       <c r="AB599" s="12"/>
     </row>
-    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="9"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -18795,7 +18863,7 @@
       <c r="AA600" s="12"/>
       <c r="AB600" s="12"/>
     </row>
-    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="9"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -18825,7 +18893,7 @@
       <c r="AA601" s="12"/>
       <c r="AB601" s="12"/>
     </row>
-    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="9"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -18855,7 +18923,7 @@
       <c r="AA602" s="12"/>
       <c r="AB602" s="12"/>
     </row>
-    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="9"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -18885,7 +18953,7 @@
       <c r="AA603" s="12"/>
       <c r="AB603" s="12"/>
     </row>
-    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="9"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -18915,7 +18983,7 @@
       <c r="AA604" s="12"/>
       <c r="AB604" s="12"/>
     </row>
-    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="9"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -18945,7 +19013,7 @@
       <c r="AA605" s="12"/>
       <c r="AB605" s="12"/>
     </row>
-    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="9"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -18975,7 +19043,7 @@
       <c r="AA606" s="12"/>
       <c r="AB606" s="12"/>
     </row>
-    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="9"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -19005,7 +19073,7 @@
       <c r="AA607" s="12"/>
       <c r="AB607" s="12"/>
     </row>
-    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="9"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -19035,7 +19103,7 @@
       <c r="AA608" s="12"/>
       <c r="AB608" s="12"/>
     </row>
-    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="9"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -19065,7 +19133,7 @@
       <c r="AA609" s="12"/>
       <c r="AB609" s="12"/>
     </row>
-    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="9"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -19095,7 +19163,7 @@
       <c r="AA610" s="12"/>
       <c r="AB610" s="12"/>
     </row>
-    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="9"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -19125,7 +19193,7 @@
       <c r="AA611" s="12"/>
       <c r="AB611" s="12"/>
     </row>
-    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="9"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -19155,7 +19223,7 @@
       <c r="AA612" s="12"/>
       <c r="AB612" s="12"/>
     </row>
-    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="9"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -19185,7 +19253,7 @@
       <c r="AA613" s="12"/>
       <c r="AB613" s="12"/>
     </row>
-    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="9"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -19215,7 +19283,7 @@
       <c r="AA614" s="12"/>
       <c r="AB614" s="12"/>
     </row>
-    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="9"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -19245,7 +19313,7 @@
       <c r="AA615" s="12"/>
       <c r="AB615" s="12"/>
     </row>
-    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="9"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -19275,7 +19343,7 @@
       <c r="AA616" s="12"/>
       <c r="AB616" s="12"/>
     </row>
-    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="9"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -19305,7 +19373,7 @@
       <c r="AA617" s="12"/>
       <c r="AB617" s="12"/>
     </row>
-    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="9"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -19335,7 +19403,7 @@
       <c r="AA618" s="12"/>
       <c r="AB618" s="12"/>
     </row>
-    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="9"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -19365,7 +19433,7 @@
       <c r="AA619" s="12"/>
       <c r="AB619" s="12"/>
     </row>
-    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="9"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -19395,7 +19463,7 @@
       <c r="AA620" s="12"/>
       <c r="AB620" s="12"/>
     </row>
-    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="9"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -19425,7 +19493,7 @@
       <c r="AA621" s="12"/>
       <c r="AB621" s="12"/>
     </row>
-    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="9"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -19455,7 +19523,7 @@
       <c r="AA622" s="12"/>
       <c r="AB622" s="12"/>
     </row>
-    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="9"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -19485,7 +19553,7 @@
       <c r="AA623" s="12"/>
       <c r="AB623" s="12"/>
     </row>
-    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="9"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -19515,7 +19583,7 @@
       <c r="AA624" s="12"/>
       <c r="AB624" s="12"/>
     </row>
-    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="9"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -19545,7 +19613,7 @@
       <c r="AA625" s="12"/>
       <c r="AB625" s="12"/>
     </row>
-    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="9"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -19575,7 +19643,7 @@
       <c r="AA626" s="12"/>
       <c r="AB626" s="12"/>
     </row>
-    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="9"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -19605,7 +19673,7 @@
       <c r="AA627" s="12"/>
       <c r="AB627" s="12"/>
     </row>
-    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="9"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -19635,7 +19703,7 @@
       <c r="AA628" s="12"/>
       <c r="AB628" s="12"/>
     </row>
-    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="9"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -19665,7 +19733,7 @@
       <c r="AA629" s="12"/>
       <c r="AB629" s="12"/>
     </row>
-    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="9"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -19695,7 +19763,7 @@
       <c r="AA630" s="12"/>
       <c r="AB630" s="12"/>
     </row>
-    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="9"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -19725,7 +19793,7 @@
       <c r="AA631" s="12"/>
       <c r="AB631" s="12"/>
     </row>
-    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="9"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -19755,7 +19823,7 @@
       <c r="AA632" s="12"/>
       <c r="AB632" s="12"/>
     </row>
-    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="9"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -19785,7 +19853,7 @@
       <c r="AA633" s="12"/>
       <c r="AB633" s="12"/>
     </row>
-    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="9"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -19815,7 +19883,7 @@
       <c r="AA634" s="12"/>
       <c r="AB634" s="12"/>
     </row>
-    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="9"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -19845,7 +19913,7 @@
       <c r="AA635" s="12"/>
       <c r="AB635" s="12"/>
     </row>
-    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="9"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -19875,7 +19943,7 @@
       <c r="AA636" s="12"/>
       <c r="AB636" s="12"/>
     </row>
-    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="9"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -19905,7 +19973,7 @@
       <c r="AA637" s="12"/>
       <c r="AB637" s="12"/>
     </row>
-    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -19935,7 +20003,7 @@
       <c r="AA638" s="12"/>
       <c r="AB638" s="12"/>
     </row>
-    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="9"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -19965,7 +20033,7 @@
       <c r="AA639" s="12"/>
       <c r="AB639" s="12"/>
     </row>
-    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="9"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -19995,7 +20063,7 @@
       <c r="AA640" s="12"/>
       <c r="AB640" s="12"/>
     </row>
-    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -20025,7 +20093,7 @@
       <c r="AA641" s="12"/>
       <c r="AB641" s="12"/>
     </row>
-    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -20055,7 +20123,7 @@
       <c r="AA642" s="12"/>
       <c r="AB642" s="12"/>
     </row>
-    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="9"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -20085,7 +20153,7 @@
       <c r="AA643" s="12"/>
       <c r="AB643" s="12"/>
     </row>
-    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -20115,7 +20183,7 @@
       <c r="AA644" s="12"/>
       <c r="AB644" s="12"/>
     </row>
-    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -20145,7 +20213,7 @@
       <c r="AA645" s="12"/>
       <c r="AB645" s="12"/>
     </row>
-    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -20175,7 +20243,7 @@
       <c r="AA646" s="12"/>
       <c r="AB646" s="12"/>
     </row>
-    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -20205,7 +20273,7 @@
       <c r="AA647" s="12"/>
       <c r="AB647" s="12"/>
     </row>
-    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -20235,7 +20303,7 @@
       <c r="AA648" s="12"/>
       <c r="AB648" s="12"/>
     </row>
-    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -20265,7 +20333,7 @@
       <c r="AA649" s="12"/>
       <c r="AB649" s="12"/>
     </row>
-    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -20295,7 +20363,7 @@
       <c r="AA650" s="12"/>
       <c r="AB650" s="12"/>
     </row>
-    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -20325,7 +20393,7 @@
       <c r="AA651" s="12"/>
       <c r="AB651" s="12"/>
     </row>
-    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="9"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -20355,7 +20423,7 @@
       <c r="AA652" s="12"/>
       <c r="AB652" s="12"/>
     </row>
-    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="9"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -20385,7 +20453,7 @@
       <c r="AA653" s="12"/>
       <c r="AB653" s="12"/>
     </row>
-    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -20415,7 +20483,7 @@
       <c r="AA654" s="12"/>
       <c r="AB654" s="12"/>
     </row>
-    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -20445,7 +20513,7 @@
       <c r="AA655" s="12"/>
       <c r="AB655" s="12"/>
     </row>
-    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -20475,7 +20543,7 @@
       <c r="AA656" s="12"/>
       <c r="AB656" s="12"/>
     </row>
-    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -20505,7 +20573,7 @@
       <c r="AA657" s="12"/>
       <c r="AB657" s="12"/>
     </row>
-    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -20535,7 +20603,7 @@
       <c r="AA658" s="12"/>
       <c r="AB658" s="12"/>
     </row>
-    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -20565,7 +20633,7 @@
       <c r="AA659" s="12"/>
       <c r="AB659" s="12"/>
     </row>
-    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -20595,7 +20663,7 @@
       <c r="AA660" s="12"/>
       <c r="AB660" s="12"/>
     </row>
-    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="9"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -20625,7 +20693,7 @@
       <c r="AA661" s="12"/>
       <c r="AB661" s="12"/>
     </row>
-    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -20655,7 +20723,7 @@
       <c r="AA662" s="12"/>
       <c r="AB662" s="12"/>
     </row>
-    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="9"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -20685,7 +20753,7 @@
       <c r="AA663" s="12"/>
       <c r="AB663" s="12"/>
     </row>
-    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="9"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -20715,7 +20783,7 @@
       <c r="AA664" s="12"/>
       <c r="AB664" s="12"/>
     </row>
-    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -20745,7 +20813,7 @@
       <c r="AA665" s="12"/>
       <c r="AB665" s="12"/>
     </row>
-    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -20775,7 +20843,7 @@
       <c r="AA666" s="12"/>
       <c r="AB666" s="12"/>
     </row>
-    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -20805,7 +20873,7 @@
       <c r="AA667" s="12"/>
       <c r="AB667" s="12"/>
     </row>
-    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -20835,7 +20903,7 @@
       <c r="AA668" s="12"/>
       <c r="AB668" s="12"/>
     </row>
-    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -20865,7 +20933,7 @@
       <c r="AA669" s="12"/>
       <c r="AB669" s="12"/>
     </row>
-    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="9"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -20895,7 +20963,7 @@
       <c r="AA670" s="12"/>
       <c r="AB670" s="12"/>
     </row>
-    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -20925,7 +20993,7 @@
       <c r="AA671" s="12"/>
       <c r="AB671" s="12"/>
     </row>
-    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -20955,7 +21023,7 @@
       <c r="AA672" s="12"/>
       <c r="AB672" s="12"/>
     </row>
-    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -20985,7 +21053,7 @@
       <c r="AA673" s="12"/>
       <c r="AB673" s="12"/>
     </row>
-    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -21015,7 +21083,7 @@
       <c r="AA674" s="12"/>
       <c r="AB674" s="12"/>
     </row>
-    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -21045,7 +21113,7 @@
       <c r="AA675" s="12"/>
       <c r="AB675" s="12"/>
     </row>
-    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -21075,7 +21143,7 @@
       <c r="AA676" s="12"/>
       <c r="AB676" s="12"/>
     </row>
-    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -21105,7 +21173,7 @@
       <c r="AA677" s="12"/>
       <c r="AB677" s="12"/>
     </row>
-    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -21135,7 +21203,7 @@
       <c r="AA678" s="12"/>
       <c r="AB678" s="12"/>
     </row>
-    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -21165,7 +21233,7 @@
       <c r="AA679" s="12"/>
       <c r="AB679" s="12"/>
     </row>
-    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="9"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -21195,7 +21263,7 @@
       <c r="AA680" s="12"/>
       <c r="AB680" s="12"/>
     </row>
-    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -21225,7 +21293,7 @@
       <c r="AA681" s="12"/>
       <c r="AB681" s="12"/>
     </row>
-    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -21255,7 +21323,7 @@
       <c r="AA682" s="12"/>
       <c r="AB682" s="12"/>
     </row>
-    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -21285,7 +21353,7 @@
       <c r="AA683" s="12"/>
       <c r="AB683" s="12"/>
     </row>
-    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -21315,7 +21383,7 @@
       <c r="AA684" s="12"/>
       <c r="AB684" s="12"/>
     </row>
-    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -21345,7 +21413,7 @@
       <c r="AA685" s="12"/>
       <c r="AB685" s="12"/>
     </row>
-    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -21375,7 +21443,7 @@
       <c r="AA686" s="12"/>
       <c r="AB686" s="12"/>
     </row>
-    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -21405,7 +21473,7 @@
       <c r="AA687" s="12"/>
       <c r="AB687" s="12"/>
     </row>
-    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="9"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -21435,7 +21503,7 @@
       <c r="AA688" s="12"/>
       <c r="AB688" s="12"/>
     </row>
-    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="9"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -21465,7 +21533,7 @@
       <c r="AA689" s="12"/>
       <c r="AB689" s="12"/>
     </row>
-    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -21495,7 +21563,7 @@
       <c r="AA690" s="12"/>
       <c r="AB690" s="12"/>
     </row>
-    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -21525,7 +21593,7 @@
       <c r="AA691" s="12"/>
       <c r="AB691" s="12"/>
     </row>
-    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -21555,7 +21623,7 @@
       <c r="AA692" s="12"/>
       <c r="AB692" s="12"/>
     </row>
-    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -21585,7 +21653,7 @@
       <c r="AA693" s="12"/>
       <c r="AB693" s="12"/>
     </row>
-    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -21615,7 +21683,7 @@
       <c r="AA694" s="12"/>
       <c r="AB694" s="12"/>
     </row>
-    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -21645,7 +21713,7 @@
       <c r="AA695" s="12"/>
       <c r="AB695" s="12"/>
     </row>
-    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="9"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -21675,7 +21743,7 @@
       <c r="AA696" s="12"/>
       <c r="AB696" s="12"/>
     </row>
-    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -21705,7 +21773,7 @@
       <c r="AA697" s="12"/>
       <c r="AB697" s="12"/>
     </row>
-    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -21735,7 +21803,7 @@
       <c r="AA698" s="12"/>
       <c r="AB698" s="12"/>
     </row>
-    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -21765,7 +21833,7 @@
       <c r="AA699" s="12"/>
       <c r="AB699" s="12"/>
     </row>
-    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="9"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -21795,7 +21863,7 @@
       <c r="AA700" s="12"/>
       <c r="AB700" s="12"/>
     </row>
-    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="9"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -21825,7 +21893,7 @@
       <c r="AA701" s="12"/>
       <c r="AB701" s="12"/>
     </row>
-    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -21855,7 +21923,7 @@
       <c r="AA702" s="12"/>
       <c r="AB702" s="12"/>
     </row>
-    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -21885,7 +21953,7 @@
       <c r="AA703" s="12"/>
       <c r="AB703" s="12"/>
     </row>
-    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -21915,7 +21983,7 @@
       <c r="AA704" s="12"/>
       <c r="AB704" s="12"/>
     </row>
-    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -21945,7 +22013,7 @@
       <c r="AA705" s="12"/>
       <c r="AB705" s="12"/>
     </row>
-    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -21975,7 +22043,7 @@
       <c r="AA706" s="12"/>
       <c r="AB706" s="12"/>
     </row>
-    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -22005,7 +22073,7 @@
       <c r="AA707" s="12"/>
       <c r="AB707" s="12"/>
     </row>
-    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -22035,7 +22103,7 @@
       <c r="AA708" s="12"/>
       <c r="AB708" s="12"/>
     </row>
-    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="9"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -22065,7 +22133,7 @@
       <c r="AA709" s="12"/>
       <c r="AB709" s="12"/>
     </row>
-    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="9"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -22095,7 +22163,7 @@
       <c r="AA710" s="12"/>
       <c r="AB710" s="12"/>
     </row>
-    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -22125,7 +22193,7 @@
       <c r="AA711" s="12"/>
       <c r="AB711" s="12"/>
     </row>
-    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -22155,7 +22223,7 @@
       <c r="AA712" s="12"/>
       <c r="AB712" s="12"/>
     </row>
-    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="9"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -22185,7 +22253,7 @@
       <c r="AA713" s="12"/>
       <c r="AB713" s="12"/>
     </row>
-    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="9"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -22215,7 +22283,7 @@
       <c r="AA714" s="12"/>
       <c r="AB714" s="12"/>
     </row>
-    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -22245,7 +22313,7 @@
       <c r="AA715" s="12"/>
       <c r="AB715" s="12"/>
     </row>
-    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -22275,7 +22343,7 @@
       <c r="AA716" s="12"/>
       <c r="AB716" s="12"/>
     </row>
-    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -22305,7 +22373,7 @@
       <c r="AA717" s="12"/>
       <c r="AB717" s="12"/>
     </row>
-    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -22335,7 +22403,7 @@
       <c r="AA718" s="12"/>
       <c r="AB718" s="12"/>
     </row>
-    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -22365,7 +22433,7 @@
       <c r="AA719" s="12"/>
       <c r="AB719" s="12"/>
     </row>
-    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -22395,7 +22463,7 @@
       <c r="AA720" s="12"/>
       <c r="AB720" s="12"/>
     </row>
-    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -22425,7 +22493,7 @@
       <c r="AA721" s="12"/>
       <c r="AB721" s="12"/>
     </row>
-    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -22455,7 +22523,7 @@
       <c r="AA722" s="12"/>
       <c r="AB722" s="12"/>
     </row>
-    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -22485,7 +22553,7 @@
       <c r="AA723" s="12"/>
       <c r="AB723" s="12"/>
     </row>
-    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -22515,7 +22583,7 @@
       <c r="AA724" s="12"/>
       <c r="AB724" s="12"/>
     </row>
-    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="9"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -22545,7 +22613,7 @@
       <c r="AA725" s="12"/>
       <c r="AB725" s="12"/>
     </row>
-    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -22575,7 +22643,7 @@
       <c r="AA726" s="12"/>
       <c r="AB726" s="12"/>
     </row>
-    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -22605,7 +22673,7 @@
       <c r="AA727" s="12"/>
       <c r="AB727" s="12"/>
     </row>
-    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -22635,7 +22703,7 @@
       <c r="AA728" s="12"/>
       <c r="AB728" s="12"/>
     </row>
-    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -22665,7 +22733,7 @@
       <c r="AA729" s="12"/>
       <c r="AB729" s="12"/>
     </row>
-    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -22695,7 +22763,7 @@
       <c r="AA730" s="12"/>
       <c r="AB730" s="12"/>
     </row>
-    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="9"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -22725,7 +22793,7 @@
       <c r="AA731" s="12"/>
       <c r="AB731" s="12"/>
     </row>
-    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="9"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -22755,7 +22823,7 @@
       <c r="AA732" s="12"/>
       <c r="AB732" s="12"/>
     </row>
-    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="9"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -22785,7 +22853,7 @@
       <c r="AA733" s="12"/>
       <c r="AB733" s="12"/>
     </row>
-    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="9"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -22815,7 +22883,7 @@
       <c r="AA734" s="12"/>
       <c r="AB734" s="12"/>
     </row>
-    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="9"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -22845,7 +22913,7 @@
       <c r="AA735" s="12"/>
       <c r="AB735" s="12"/>
     </row>
-    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="9"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -22875,7 +22943,7 @@
       <c r="AA736" s="12"/>
       <c r="AB736" s="12"/>
     </row>
-    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="9"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -22905,7 +22973,7 @@
       <c r="AA737" s="12"/>
       <c r="AB737" s="12"/>
     </row>
-    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="9"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -22935,7 +23003,7 @@
       <c r="AA738" s="12"/>
       <c r="AB738" s="12"/>
     </row>
-    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="9"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -22965,7 +23033,7 @@
       <c r="AA739" s="12"/>
       <c r="AB739" s="12"/>
     </row>
-    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="9"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -22995,7 +23063,7 @@
       <c r="AA740" s="12"/>
       <c r="AB740" s="12"/>
     </row>
-    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="9"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -23025,7 +23093,7 @@
       <c r="AA741" s="12"/>
       <c r="AB741" s="12"/>
     </row>
-    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="9"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -23055,7 +23123,7 @@
       <c r="AA742" s="12"/>
       <c r="AB742" s="12"/>
     </row>
-    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="9"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -23085,7 +23153,7 @@
       <c r="AA743" s="12"/>
       <c r="AB743" s="12"/>
     </row>
-    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="9"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -23115,7 +23183,7 @@
       <c r="AA744" s="12"/>
       <c r="AB744" s="12"/>
     </row>
-    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="9"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -23145,7 +23213,7 @@
       <c r="AA745" s="12"/>
       <c r="AB745" s="12"/>
     </row>
-    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="9"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -23175,7 +23243,7 @@
       <c r="AA746" s="12"/>
       <c r="AB746" s="12"/>
     </row>
-    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="9"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -23205,7 +23273,7 @@
       <c r="AA747" s="12"/>
       <c r="AB747" s="12"/>
     </row>
-    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="9"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -23235,7 +23303,7 @@
       <c r="AA748" s="12"/>
       <c r="AB748" s="12"/>
     </row>
-    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="9"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -23265,7 +23333,7 @@
       <c r="AA749" s="12"/>
       <c r="AB749" s="12"/>
     </row>
-    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="9"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -23295,7 +23363,7 @@
       <c r="AA750" s="12"/>
       <c r="AB750" s="12"/>
     </row>
-    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="9"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -23325,7 +23393,7 @@
       <c r="AA751" s="12"/>
       <c r="AB751" s="12"/>
     </row>
-    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="9"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -23355,7 +23423,7 @@
       <c r="AA752" s="12"/>
       <c r="AB752" s="12"/>
     </row>
-    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="9"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -23385,7 +23453,7 @@
       <c r="AA753" s="12"/>
       <c r="AB753" s="12"/>
     </row>
-    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="9"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -23415,7 +23483,7 @@
       <c r="AA754" s="12"/>
       <c r="AB754" s="12"/>
     </row>
-    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="9"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -23445,7 +23513,7 @@
       <c r="AA755" s="12"/>
       <c r="AB755" s="12"/>
     </row>
-    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="9"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -23475,7 +23543,7 @@
       <c r="AA756" s="12"/>
       <c r="AB756" s="12"/>
     </row>
-    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="9"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -23505,7 +23573,7 @@
       <c r="AA757" s="12"/>
       <c r="AB757" s="12"/>
     </row>
-    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="9"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -23535,7 +23603,7 @@
       <c r="AA758" s="12"/>
       <c r="AB758" s="12"/>
     </row>
-    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="9"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -23565,7 +23633,7 @@
       <c r="AA759" s="12"/>
       <c r="AB759" s="12"/>
     </row>
-    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="9"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -23595,7 +23663,7 @@
       <c r="AA760" s="12"/>
       <c r="AB760" s="12"/>
     </row>
-    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="9"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -23625,7 +23693,7 @@
       <c r="AA761" s="12"/>
       <c r="AB761" s="12"/>
     </row>
-    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="9"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -23655,7 +23723,7 @@
       <c r="AA762" s="12"/>
       <c r="AB762" s="12"/>
     </row>
-    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="9"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -23685,7 +23753,7 @@
       <c r="AA763" s="12"/>
       <c r="AB763" s="12"/>
     </row>
-    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="9"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -23715,7 +23783,7 @@
       <c r="AA764" s="12"/>
       <c r="AB764" s="12"/>
     </row>
-    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="9"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -23745,7 +23813,7 @@
       <c r="AA765" s="12"/>
       <c r="AB765" s="12"/>
     </row>
-    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="9"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -23775,7 +23843,7 @@
       <c r="AA766" s="12"/>
       <c r="AB766" s="12"/>
     </row>
-    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="9"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -23805,7 +23873,7 @@
       <c r="AA767" s="12"/>
       <c r="AB767" s="12"/>
     </row>
-    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="9"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -23835,7 +23903,7 @@
       <c r="AA768" s="12"/>
       <c r="AB768" s="12"/>
     </row>
-    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="9"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -23865,7 +23933,7 @@
       <c r="AA769" s="12"/>
       <c r="AB769" s="12"/>
     </row>
-    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="9"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -23895,7 +23963,7 @@
       <c r="AA770" s="12"/>
       <c r="AB770" s="12"/>
     </row>
-    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="9"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -23925,7 +23993,7 @@
       <c r="AA771" s="12"/>
       <c r="AB771" s="12"/>
     </row>
-    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="9"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -23955,7 +24023,7 @@
       <c r="AA772" s="12"/>
       <c r="AB772" s="12"/>
     </row>
-    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="9"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -23985,7 +24053,7 @@
       <c r="AA773" s="12"/>
       <c r="AB773" s="12"/>
     </row>
-    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="9"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -24015,7 +24083,7 @@
       <c r="AA774" s="12"/>
       <c r="AB774" s="12"/>
     </row>
-    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="9"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -24045,7 +24113,7 @@
       <c r="AA775" s="12"/>
       <c r="AB775" s="12"/>
     </row>
-    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="9"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -24075,7 +24143,7 @@
       <c r="AA776" s="12"/>
       <c r="AB776" s="12"/>
     </row>
-    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="9"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -24105,7 +24173,7 @@
       <c r="AA777" s="12"/>
       <c r="AB777" s="12"/>
     </row>
-    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="9"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -24135,7 +24203,7 @@
       <c r="AA778" s="12"/>
       <c r="AB778" s="12"/>
     </row>
-    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="9"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -24165,7 +24233,7 @@
       <c r="AA779" s="12"/>
       <c r="AB779" s="12"/>
     </row>
-    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="9"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -24195,7 +24263,7 @@
       <c r="AA780" s="12"/>
       <c r="AB780" s="12"/>
     </row>
-    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="9"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -24225,7 +24293,7 @@
       <c r="AA781" s="12"/>
       <c r="AB781" s="12"/>
     </row>
-    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="9"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -24255,7 +24323,7 @@
       <c r="AA782" s="12"/>
       <c r="AB782" s="12"/>
     </row>
-    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="9"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -24285,7 +24353,7 @@
       <c r="AA783" s="12"/>
       <c r="AB783" s="12"/>
     </row>
-    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="9"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -24315,7 +24383,7 @@
       <c r="AA784" s="12"/>
       <c r="AB784" s="12"/>
     </row>
-    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="9"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -24345,7 +24413,7 @@
       <c r="AA785" s="12"/>
       <c r="AB785" s="12"/>
     </row>
-    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="9"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -24375,7 +24443,7 @@
       <c r="AA786" s="12"/>
       <c r="AB786" s="12"/>
     </row>
-    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="9"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -24405,7 +24473,7 @@
       <c r="AA787" s="12"/>
       <c r="AB787" s="12"/>
     </row>
-    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="9"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -24435,7 +24503,7 @@
       <c r="AA788" s="12"/>
       <c r="AB788" s="12"/>
     </row>
-    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="9"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -24465,7 +24533,7 @@
       <c r="AA789" s="12"/>
       <c r="AB789" s="12"/>
     </row>
-    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="9"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -24495,7 +24563,7 @@
       <c r="AA790" s="12"/>
       <c r="AB790" s="12"/>
     </row>
-    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="9"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -24525,7 +24593,7 @@
       <c r="AA791" s="12"/>
       <c r="AB791" s="12"/>
     </row>
-    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="9"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -24555,7 +24623,7 @@
       <c r="AA792" s="12"/>
       <c r="AB792" s="12"/>
     </row>
-    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="9"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -24585,7 +24653,7 @@
       <c r="AA793" s="12"/>
       <c r="AB793" s="12"/>
     </row>
-    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -24615,7 +24683,7 @@
       <c r="AA794" s="12"/>
       <c r="AB794" s="12"/>
     </row>
-    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -24645,7 +24713,7 @@
       <c r="AA795" s="12"/>
       <c r="AB795" s="12"/>
     </row>
-    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -24675,7 +24743,7 @@
       <c r="AA796" s="12"/>
       <c r="AB796" s="12"/>
     </row>
-    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -24705,7 +24773,7 @@
       <c r="AA797" s="12"/>
       <c r="AB797" s="12"/>
     </row>
-    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -24735,7 +24803,7 @@
       <c r="AA798" s="12"/>
       <c r="AB798" s="12"/>
     </row>
-    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -24765,7 +24833,7 @@
       <c r="AA799" s="12"/>
       <c r="AB799" s="12"/>
     </row>
-    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -24795,7 +24863,7 @@
       <c r="AA800" s="12"/>
       <c r="AB800" s="12"/>
     </row>
-    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="9"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -24825,7 +24893,7 @@
       <c r="AA801" s="12"/>
       <c r="AB801" s="12"/>
     </row>
-    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="9"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -24855,7 +24923,7 @@
       <c r="AA802" s="12"/>
       <c r="AB802" s="12"/>
     </row>
-    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="9"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -24885,7 +24953,7 @@
       <c r="AA803" s="12"/>
       <c r="AB803" s="12"/>
     </row>
-    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="9"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -24915,7 +24983,7 @@
       <c r="AA804" s="12"/>
       <c r="AB804" s="12"/>
     </row>
-    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="9"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -24945,7 +25013,7 @@
       <c r="AA805" s="12"/>
       <c r="AB805" s="12"/>
     </row>
-    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="9"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -24975,7 +25043,7 @@
       <c r="AA806" s="12"/>
       <c r="AB806" s="12"/>
     </row>
-    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="9"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -25005,7 +25073,7 @@
       <c r="AA807" s="12"/>
       <c r="AB807" s="12"/>
     </row>
-    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="9"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -25035,7 +25103,7 @@
       <c r="AA808" s="12"/>
       <c r="AB808" s="12"/>
     </row>
-    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="9"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -25065,7 +25133,7 @@
       <c r="AA809" s="12"/>
       <c r="AB809" s="12"/>
     </row>
-    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="9"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -25095,7 +25163,7 @@
       <c r="AA810" s="12"/>
       <c r="AB810" s="12"/>
     </row>
-    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="9"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -25125,7 +25193,7 @@
       <c r="AA811" s="12"/>
       <c r="AB811" s="12"/>
     </row>
-    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="9"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -25155,7 +25223,7 @@
       <c r="AA812" s="12"/>
       <c r="AB812" s="12"/>
     </row>
-    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="9"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -25185,7 +25253,7 @@
       <c r="AA813" s="12"/>
       <c r="AB813" s="12"/>
     </row>
-    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="9"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -25215,7 +25283,7 @@
       <c r="AA814" s="12"/>
       <c r="AB814" s="12"/>
     </row>
-    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="9"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -25245,7 +25313,7 @@
       <c r="AA815" s="12"/>
       <c r="AB815" s="12"/>
     </row>
-    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="9"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -25275,7 +25343,7 @@
       <c r="AA816" s="12"/>
       <c r="AB816" s="12"/>
     </row>
-    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="9"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -25305,7 +25373,7 @@
       <c r="AA817" s="12"/>
       <c r="AB817" s="12"/>
     </row>
-    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="9"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -25335,7 +25403,7 @@
       <c r="AA818" s="12"/>
       <c r="AB818" s="12"/>
     </row>
-    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="9"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -25365,7 +25433,7 @@
       <c r="AA819" s="12"/>
       <c r="AB819" s="12"/>
     </row>
-    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="9"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -25395,7 +25463,7 @@
       <c r="AA820" s="12"/>
       <c r="AB820" s="12"/>
     </row>
-    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="9"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -25425,7 +25493,7 @@
       <c r="AA821" s="12"/>
       <c r="AB821" s="12"/>
     </row>
-    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="9"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -25455,7 +25523,7 @@
       <c r="AA822" s="12"/>
       <c r="AB822" s="12"/>
     </row>
-    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="9"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -25485,7 +25553,7 @@
       <c r="AA823" s="12"/>
       <c r="AB823" s="12"/>
     </row>
-    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="9"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -25515,7 +25583,7 @@
       <c r="AA824" s="12"/>
       <c r="AB824" s="12"/>
     </row>
-    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="9"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -25545,7 +25613,7 @@
       <c r="AA825" s="12"/>
       <c r="AB825" s="12"/>
     </row>
-    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="9"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -25575,7 +25643,7 @@
       <c r="AA826" s="12"/>
       <c r="AB826" s="12"/>
     </row>
-    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="9"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -25605,7 +25673,7 @@
       <c r="AA827" s="12"/>
       <c r="AB827" s="12"/>
     </row>
-    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="9"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -25635,7 +25703,7 @@
       <c r="AA828" s="12"/>
       <c r="AB828" s="12"/>
     </row>
-    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="9"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -25665,7 +25733,7 @@
       <c r="AA829" s="12"/>
       <c r="AB829" s="12"/>
     </row>
-    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="9"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -25695,7 +25763,7 @@
       <c r="AA830" s="12"/>
       <c r="AB830" s="12"/>
     </row>
-    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="9"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -25725,7 +25793,7 @@
       <c r="AA831" s="12"/>
       <c r="AB831" s="12"/>
     </row>
-    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="9"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -25755,7 +25823,7 @@
       <c r="AA832" s="12"/>
       <c r="AB832" s="12"/>
     </row>
-    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="9"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -25785,7 +25853,7 @@
       <c r="AA833" s="12"/>
       <c r="AB833" s="12"/>
     </row>
-    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="9"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -25815,7 +25883,7 @@
       <c r="AA834" s="12"/>
       <c r="AB834" s="12"/>
     </row>
-    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="9"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -25845,7 +25913,7 @@
       <c r="AA835" s="12"/>
       <c r="AB835" s="12"/>
     </row>
-    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="9"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -25875,7 +25943,7 @@
       <c r="AA836" s="12"/>
       <c r="AB836" s="12"/>
     </row>
-    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="9"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -25905,7 +25973,7 @@
       <c r="AA837" s="12"/>
       <c r="AB837" s="12"/>
     </row>
-    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="9"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -25935,7 +26003,7 @@
       <c r="AA838" s="12"/>
       <c r="AB838" s="12"/>
     </row>
-    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="9"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -25965,7 +26033,7 @@
       <c r="AA839" s="12"/>
       <c r="AB839" s="12"/>
     </row>
-    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="9"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -25995,7 +26063,7 @@
       <c r="AA840" s="12"/>
       <c r="AB840" s="12"/>
     </row>
-    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="9"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -26025,7 +26093,7 @@
       <c r="AA841" s="12"/>
       <c r="AB841" s="12"/>
     </row>
-    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="9"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -26055,7 +26123,7 @@
       <c r="AA842" s="12"/>
       <c r="AB842" s="12"/>
     </row>
-    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="9"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -26085,7 +26153,7 @@
       <c r="AA843" s="12"/>
       <c r="AB843" s="12"/>
     </row>
-    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="9"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -26115,7 +26183,7 @@
       <c r="AA844" s="12"/>
       <c r="AB844" s="12"/>
     </row>
-    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="9"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -26145,7 +26213,7 @@
       <c r="AA845" s="12"/>
       <c r="AB845" s="12"/>
     </row>
-    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="9"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -26175,7 +26243,7 @@
       <c r="AA846" s="12"/>
       <c r="AB846" s="12"/>
     </row>
-    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="9"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -26205,7 +26273,7 @@
       <c r="AA847" s="12"/>
       <c r="AB847" s="12"/>
     </row>
-    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="9"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -26235,7 +26303,7 @@
       <c r="AA848" s="12"/>
       <c r="AB848" s="12"/>
     </row>
-    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="9"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -26265,7 +26333,7 @@
       <c r="AA849" s="12"/>
       <c r="AB849" s="12"/>
     </row>
-    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="9"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -26295,7 +26363,7 @@
       <c r="AA850" s="12"/>
       <c r="AB850" s="12"/>
     </row>
-    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="9"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -26325,7 +26393,7 @@
       <c r="AA851" s="12"/>
       <c r="AB851" s="12"/>
     </row>
-    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="9"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -26355,7 +26423,7 @@
       <c r="AA852" s="12"/>
       <c r="AB852" s="12"/>
     </row>
-    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="9"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -26385,7 +26453,7 @@
       <c r="AA853" s="12"/>
       <c r="AB853" s="12"/>
     </row>
-    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="9"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -26415,7 +26483,7 @@
       <c r="AA854" s="12"/>
       <c r="AB854" s="12"/>
     </row>
-    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="9"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -26445,7 +26513,7 @@
       <c r="AA855" s="12"/>
       <c r="AB855" s="12"/>
     </row>
-    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="9"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -26475,7 +26543,7 @@
       <c r="AA856" s="12"/>
       <c r="AB856" s="12"/>
     </row>
-    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="9"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -26505,7 +26573,7 @@
       <c r="AA857" s="12"/>
       <c r="AB857" s="12"/>
     </row>
-    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="9"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -26535,7 +26603,7 @@
       <c r="AA858" s="12"/>
       <c r="AB858" s="12"/>
     </row>
-    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="9"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -26565,7 +26633,7 @@
       <c r="AA859" s="12"/>
       <c r="AB859" s="12"/>
     </row>
-    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="9"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -26595,7 +26663,7 @@
       <c r="AA860" s="12"/>
       <c r="AB860" s="12"/>
     </row>
-    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="9"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -26625,7 +26693,7 @@
       <c r="AA861" s="12"/>
       <c r="AB861" s="12"/>
     </row>
-    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="9"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -26655,7 +26723,7 @@
       <c r="AA862" s="12"/>
       <c r="AB862" s="12"/>
     </row>
-    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="9"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -26685,7 +26753,7 @@
       <c r="AA863" s="12"/>
       <c r="AB863" s="12"/>
     </row>
-    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="9"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -26715,7 +26783,7 @@
       <c r="AA864" s="12"/>
       <c r="AB864" s="12"/>
     </row>
-    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="9"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -26745,7 +26813,7 @@
       <c r="AA865" s="12"/>
       <c r="AB865" s="12"/>
     </row>
-    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="9"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -26775,7 +26843,7 @@
       <c r="AA866" s="12"/>
       <c r="AB866" s="12"/>
     </row>
-    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="9"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -26805,7 +26873,7 @@
       <c r="AA867" s="12"/>
       <c r="AB867" s="12"/>
     </row>
-    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="9"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -26835,7 +26903,7 @@
       <c r="AA868" s="12"/>
       <c r="AB868" s="12"/>
     </row>
-    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="9"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -26865,7 +26933,7 @@
       <c r="AA869" s="12"/>
       <c r="AB869" s="12"/>
     </row>
-    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="9"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -26895,7 +26963,7 @@
       <c r="AA870" s="12"/>
       <c r="AB870" s="12"/>
     </row>
-    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="9"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -26925,7 +26993,7 @@
       <c r="AA871" s="12"/>
       <c r="AB871" s="12"/>
     </row>
-    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="9"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -26955,7 +27023,7 @@
       <c r="AA872" s="12"/>
       <c r="AB872" s="12"/>
     </row>
-    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="9"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -26985,7 +27053,7 @@
       <c r="AA873" s="12"/>
       <c r="AB873" s="12"/>
     </row>
-    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="9"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -27015,7 +27083,7 @@
       <c r="AA874" s="12"/>
       <c r="AB874" s="12"/>
     </row>
-    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="9"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -27045,7 +27113,7 @@
       <c r="AA875" s="12"/>
       <c r="AB875" s="12"/>
     </row>
-    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="9"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -27075,7 +27143,7 @@
       <c r="AA876" s="12"/>
       <c r="AB876" s="12"/>
     </row>
-    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="9"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -27105,7 +27173,7 @@
       <c r="AA877" s="12"/>
       <c r="AB877" s="12"/>
     </row>
-    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="9"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -27135,7 +27203,7 @@
       <c r="AA878" s="12"/>
       <c r="AB878" s="12"/>
     </row>
-    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="9"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -27165,7 +27233,7 @@
       <c r="AA879" s="12"/>
       <c r="AB879" s="12"/>
     </row>
-    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="9"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -27195,7 +27263,7 @@
       <c r="AA880" s="12"/>
       <c r="AB880" s="12"/>
     </row>
-    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="9"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -27225,7 +27293,7 @@
       <c r="AA881" s="12"/>
       <c r="AB881" s="12"/>
     </row>
-    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="9"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -27255,7 +27323,7 @@
       <c r="AA882" s="12"/>
       <c r="AB882" s="12"/>
     </row>
-    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="9"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -27285,7 +27353,7 @@
       <c r="AA883" s="12"/>
       <c r="AB883" s="12"/>
     </row>
-    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="9"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -27315,7 +27383,7 @@
       <c r="AA884" s="12"/>
       <c r="AB884" s="12"/>
     </row>
-    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="9"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -27345,7 +27413,7 @@
       <c r="AA885" s="12"/>
       <c r="AB885" s="12"/>
     </row>
-    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="9"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -27375,7 +27443,7 @@
       <c r="AA886" s="12"/>
       <c r="AB886" s="12"/>
     </row>
-    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="9"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -27405,7 +27473,7 @@
       <c r="AA887" s="12"/>
       <c r="AB887" s="12"/>
     </row>
-    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="9"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -27435,7 +27503,7 @@
       <c r="AA888" s="12"/>
       <c r="AB888" s="12"/>
     </row>
-    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="9"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -27465,7 +27533,7 @@
       <c r="AA889" s="12"/>
       <c r="AB889" s="12"/>
     </row>
-    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="9"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -27495,7 +27563,7 @@
       <c r="AA890" s="12"/>
       <c r="AB890" s="12"/>
     </row>
-    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="9"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -27525,7 +27593,7 @@
       <c r="AA891" s="12"/>
       <c r="AB891" s="12"/>
     </row>
-    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="9"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -27555,7 +27623,7 @@
       <c r="AA892" s="12"/>
       <c r="AB892" s="12"/>
     </row>
-    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="9"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -27585,7 +27653,7 @@
       <c r="AA893" s="12"/>
       <c r="AB893" s="12"/>
     </row>
-    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="9"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -27615,7 +27683,7 @@
       <c r="AA894" s="12"/>
       <c r="AB894" s="12"/>
     </row>
-    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="9"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -27645,7 +27713,7 @@
       <c r="AA895" s="12"/>
       <c r="AB895" s="12"/>
     </row>
-    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="9"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -27675,7 +27743,7 @@
       <c r="AA896" s="12"/>
       <c r="AB896" s="12"/>
     </row>
-    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="9"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -27705,7 +27773,7 @@
       <c r="AA897" s="12"/>
       <c r="AB897" s="12"/>
     </row>
-    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="9"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -27735,7 +27803,7 @@
       <c r="AA898" s="12"/>
       <c r="AB898" s="12"/>
     </row>
-    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="9"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -27765,7 +27833,7 @@
       <c r="AA899" s="12"/>
       <c r="AB899" s="12"/>
     </row>
-    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="9"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -27795,7 +27863,7 @@
       <c r="AA900" s="12"/>
       <c r="AB900" s="12"/>
     </row>
-    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="9"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -27825,7 +27893,7 @@
       <c r="AA901" s="12"/>
       <c r="AB901" s="12"/>
     </row>
-    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="9"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -27855,7 +27923,7 @@
       <c r="AA902" s="12"/>
       <c r="AB902" s="12"/>
     </row>
-    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="9"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -27885,7 +27953,7 @@
       <c r="AA903" s="12"/>
       <c r="AB903" s="12"/>
     </row>
-    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="9"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -27915,7 +27983,7 @@
       <c r="AA904" s="12"/>
       <c r="AB904" s="12"/>
     </row>
-    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="9"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -27945,7 +28013,7 @@
       <c r="AA905" s="12"/>
       <c r="AB905" s="12"/>
     </row>
-    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="9"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -27975,7 +28043,7 @@
       <c r="AA906" s="12"/>
       <c r="AB906" s="12"/>
     </row>
-    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="9"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -28005,7 +28073,7 @@
       <c r="AA907" s="12"/>
       <c r="AB907" s="12"/>
     </row>
-    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="9"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -28035,7 +28103,7 @@
       <c r="AA908" s="12"/>
       <c r="AB908" s="12"/>
     </row>
-    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="9"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -28065,7 +28133,7 @@
       <c r="AA909" s="12"/>
       <c r="AB909" s="12"/>
     </row>
-    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="9"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -28095,7 +28163,7 @@
       <c r="AA910" s="12"/>
       <c r="AB910" s="12"/>
     </row>
-    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="9"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -28125,7 +28193,7 @@
       <c r="AA911" s="12"/>
       <c r="AB911" s="12"/>
     </row>
-    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="9"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -28155,7 +28223,7 @@
       <c r="AA912" s="12"/>
       <c r="AB912" s="12"/>
     </row>
-    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="9"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -28185,7 +28253,7 @@
       <c r="AA913" s="12"/>
       <c r="AB913" s="12"/>
     </row>
-    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="9"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -28215,7 +28283,7 @@
       <c r="AA914" s="12"/>
       <c r="AB914" s="12"/>
     </row>
-    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="9"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -28245,7 +28313,7 @@
       <c r="AA915" s="12"/>
       <c r="AB915" s="12"/>
     </row>
-    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="9"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -28275,7 +28343,7 @@
       <c r="AA916" s="12"/>
       <c r="AB916" s="12"/>
     </row>
-    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="9"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -28305,7 +28373,7 @@
       <c r="AA917" s="12"/>
       <c r="AB917" s="12"/>
     </row>
-    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="9"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -28335,7 +28403,7 @@
       <c r="AA918" s="12"/>
       <c r="AB918" s="12"/>
     </row>
-    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="9"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -28365,7 +28433,7 @@
       <c r="AA919" s="12"/>
       <c r="AB919" s="12"/>
     </row>
-    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="9"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -28395,7 +28463,7 @@
       <c r="AA920" s="12"/>
       <c r="AB920" s="12"/>
     </row>
-    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="9"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -28425,7 +28493,7 @@
       <c r="AA921" s="12"/>
       <c r="AB921" s="12"/>
     </row>
-    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="9"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -28455,7 +28523,7 @@
       <c r="AA922" s="12"/>
       <c r="AB922" s="12"/>
     </row>
-    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="9"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -28485,7 +28553,7 @@
       <c r="AA923" s="12"/>
       <c r="AB923" s="12"/>
     </row>
-    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="9"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -28515,7 +28583,7 @@
       <c r="AA924" s="12"/>
       <c r="AB924" s="12"/>
     </row>
-    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="9"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -28545,7 +28613,7 @@
       <c r="AA925" s="12"/>
       <c r="AB925" s="12"/>
     </row>
-    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -28575,7 +28643,7 @@
       <c r="AA926" s="12"/>
       <c r="AB926" s="12"/>
     </row>
-    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -28605,7 +28673,7 @@
       <c r="AA927" s="12"/>
       <c r="AB927" s="12"/>
     </row>
-    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -28635,7 +28703,7 @@
       <c r="AA928" s="12"/>
       <c r="AB928" s="12"/>
     </row>
-    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="9"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -28665,7 +28733,7 @@
       <c r="AA929" s="12"/>
       <c r="AB929" s="12"/>
     </row>
-    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="9"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -28695,7 +28763,7 @@
       <c r="AA930" s="12"/>
       <c r="AB930" s="12"/>
     </row>
-    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="9"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -28725,7 +28793,7 @@
       <c r="AA931" s="12"/>
       <c r="AB931" s="12"/>
     </row>
-    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="9"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -28755,7 +28823,7 @@
       <c r="AA932" s="12"/>
       <c r="AB932" s="12"/>
     </row>
-    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="9"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -28785,7 +28853,7 @@
       <c r="AA933" s="12"/>
       <c r="AB933" s="12"/>
     </row>
-    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="9"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -28815,7 +28883,7 @@
       <c r="AA934" s="12"/>
       <c r="AB934" s="12"/>
     </row>
-    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="9"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -28845,7 +28913,7 @@
       <c r="AA935" s="12"/>
       <c r="AB935" s="12"/>
     </row>
-    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="9"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -28875,7 +28943,7 @@
       <c r="AA936" s="12"/>
       <c r="AB936" s="12"/>
     </row>
-    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="9"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -28905,7 +28973,7 @@
       <c r="AA937" s="12"/>
       <c r="AB937" s="12"/>
     </row>
-    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="9"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -28935,7 +29003,7 @@
       <c r="AA938" s="12"/>
       <c r="AB938" s="12"/>
     </row>
-    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="9"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -28965,7 +29033,7 @@
       <c r="AA939" s="12"/>
       <c r="AB939" s="12"/>
     </row>
-    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="9"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -28995,7 +29063,7 @@
       <c r="AA940" s="12"/>
       <c r="AB940" s="12"/>
     </row>
-    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="9"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -29025,7 +29093,7 @@
       <c r="AA941" s="12"/>
       <c r="AB941" s="12"/>
     </row>
-    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="9"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -29055,7 +29123,7 @@
       <c r="AA942" s="12"/>
       <c r="AB942" s="12"/>
     </row>
-    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="9"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -29085,7 +29153,7 @@
       <c r="AA943" s="12"/>
       <c r="AB943" s="12"/>
     </row>
-    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="9"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -29115,7 +29183,7 @@
       <c r="AA944" s="12"/>
       <c r="AB944" s="12"/>
     </row>
-    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="9"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -29145,7 +29213,7 @@
       <c r="AA945" s="12"/>
       <c r="AB945" s="12"/>
     </row>
-    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="9"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -29175,7 +29243,7 @@
       <c r="AA946" s="12"/>
       <c r="AB946" s="12"/>
     </row>
-    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="9"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -29205,7 +29273,7 @@
       <c r="AA947" s="12"/>
       <c r="AB947" s="12"/>
     </row>
-    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="9"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -29235,7 +29303,7 @@
       <c r="AA948" s="12"/>
       <c r="AB948" s="12"/>
     </row>
-    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="9"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -29265,7 +29333,7 @@
       <c r="AA949" s="12"/>
       <c r="AB949" s="12"/>
     </row>
-    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="9"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -29295,7 +29363,7 @@
       <c r="AA950" s="12"/>
       <c r="AB950" s="12"/>
     </row>
-    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="9"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -29325,7 +29393,7 @@
       <c r="AA951" s="12"/>
       <c r="AB951" s="12"/>
     </row>
-    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="9"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -29355,7 +29423,7 @@
       <c r="AA952" s="12"/>
       <c r="AB952" s="12"/>
     </row>
-    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="9"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -29385,7 +29453,7 @@
       <c r="AA953" s="12"/>
       <c r="AB953" s="12"/>
     </row>
-    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="9"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -29415,7 +29483,7 @@
       <c r="AA954" s="12"/>
       <c r="AB954" s="12"/>
     </row>
-    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="9"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
@@ -29445,7 +29513,7 @@
       <c r="AA955" s="12"/>
       <c r="AB955" s="12"/>
     </row>
-    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="9"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>
@@ -29475,7 +29543,7 @@
       <c r="AA956" s="12"/>
       <c r="AB956" s="12"/>
     </row>
-    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="9"/>
       <c r="B957" s="9"/>
       <c r="C957" s="9"/>
@@ -29505,7 +29573,7 @@
       <c r="AA957" s="12"/>
       <c r="AB957" s="12"/>
     </row>
-    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="9"/>
       <c r="B958" s="9"/>
       <c r="C958" s="9"/>
@@ -29535,7 +29603,7 @@
       <c r="AA958" s="12"/>
       <c r="AB958" s="12"/>
     </row>
-    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="9"/>
       <c r="B959" s="9"/>
       <c r="C959" s="9"/>
@@ -29565,7 +29633,7 @@
       <c r="AA959" s="12"/>
       <c r="AB959" s="12"/>
     </row>
-    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="9"/>
       <c r="B960" s="9"/>
       <c r="C960" s="9"/>
@@ -29595,7 +29663,7 @@
       <c r="AA960" s="12"/>
       <c r="AB960" s="12"/>
     </row>
-    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="9"/>
       <c r="B961" s="9"/>
       <c r="C961" s="9"/>
@@ -29625,7 +29693,7 @@
       <c r="AA961" s="12"/>
       <c r="AB961" s="12"/>
     </row>
-    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="9"/>
       <c r="B962" s="9"/>
       <c r="C962" s="9"/>
@@ -29655,7 +29723,7 @@
       <c r="AA962" s="12"/>
       <c r="AB962" s="12"/>
     </row>
-    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="9"/>
       <c r="B963" s="9"/>
       <c r="C963" s="9"/>
@@ -29685,7 +29753,7 @@
       <c r="AA963" s="12"/>
       <c r="AB963" s="12"/>
     </row>
-    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="9"/>
       <c r="B964" s="9"/>
       <c r="C964" s="9"/>
@@ -29715,7 +29783,7 @@
       <c r="AA964" s="12"/>
       <c r="AB964" s="12"/>
     </row>
-    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="9"/>
       <c r="B965" s="9"/>
       <c r="C965" s="9"/>
@@ -29745,7 +29813,7 @@
       <c r="AA965" s="12"/>
       <c r="AB965" s="12"/>
     </row>
-    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="9"/>
       <c r="B966" s="9"/>
       <c r="C966" s="9"/>
@@ -29775,7 +29843,7 @@
       <c r="AA966" s="12"/>
       <c r="AB966" s="12"/>
     </row>
-    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="9"/>
       <c r="B967" s="9"/>
       <c r="C967" s="9"/>
@@ -29805,7 +29873,7 @@
       <c r="AA967" s="12"/>
       <c r="AB967" s="12"/>
     </row>
-    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="9"/>
       <c r="B968" s="9"/>
       <c r="C968" s="9"/>
@@ -29835,7 +29903,7 @@
       <c r="AA968" s="12"/>
       <c r="AB968" s="12"/>
     </row>
-    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="9"/>
       <c r="B969" s="9"/>
       <c r="C969" s="9"/>
@@ -29865,7 +29933,7 @@
       <c r="AA969" s="12"/>
       <c r="AB969" s="12"/>
     </row>
-    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="9"/>
       <c r="B970" s="9"/>
       <c r="C970" s="9"/>
@@ -29895,7 +29963,7 @@
       <c r="AA970" s="12"/>
       <c r="AB970" s="12"/>
     </row>
-    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="9"/>
       <c r="B971" s="9"/>
       <c r="C971" s="9"/>
@@ -29925,7 +29993,7 @@
       <c r="AA971" s="12"/>
       <c r="AB971" s="12"/>
     </row>
-    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="9"/>
       <c r="B972" s="9"/>
       <c r="C972" s="9"/>
@@ -29955,7 +30023,7 @@
       <c r="AA972" s="12"/>
       <c r="AB972" s="12"/>
     </row>
-    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="9"/>
       <c r="B973" s="9"/>
       <c r="C973" s="9"/>
@@ -29985,7 +30053,7 @@
       <c r="AA973" s="12"/>
       <c r="AB973" s="12"/>
     </row>
-    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="9"/>
       <c r="B974" s="9"/>
       <c r="C974" s="9"/>
@@ -30015,7 +30083,7 @@
       <c r="AA974" s="12"/>
       <c r="AB974" s="12"/>
     </row>
-    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="9"/>
       <c r="B975" s="9"/>
       <c r="C975" s="9"/>
@@ -30045,7 +30113,7 @@
       <c r="AA975" s="12"/>
       <c r="AB975" s="12"/>
     </row>
-    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="9"/>
       <c r="B976" s="9"/>
       <c r="C976" s="9"/>
@@ -30075,7 +30143,7 @@
       <c r="AA976" s="12"/>
       <c r="AB976" s="12"/>
     </row>
-    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="9"/>
       <c r="B977" s="9"/>
       <c r="C977" s="9"/>
@@ -30105,7 +30173,7 @@
       <c r="AA977" s="12"/>
       <c r="AB977" s="12"/>
     </row>
-    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="9"/>
       <c r="B978" s="9"/>
       <c r="C978" s="9"/>
@@ -30135,7 +30203,7 @@
       <c r="AA978" s="12"/>
       <c r="AB978" s="12"/>
     </row>
-    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="9"/>
       <c r="B979" s="9"/>
       <c r="C979" s="9"/>
@@ -30165,7 +30233,7 @@
       <c r="AA979" s="12"/>
       <c r="AB979" s="12"/>
     </row>
-    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="9"/>
       <c r="B980" s="9"/>
       <c r="C980" s="9"/>
@@ -30195,7 +30263,7 @@
       <c r="AA980" s="12"/>
       <c r="AB980" s="12"/>
     </row>
-    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="9"/>
       <c r="B981" s="9"/>
       <c r="C981" s="9"/>
@@ -30225,7 +30293,7 @@
       <c r="AA981" s="12"/>
       <c r="AB981" s="12"/>
     </row>
-    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="9"/>
       <c r="B982" s="9"/>
       <c r="C982" s="9"/>
@@ -30255,7 +30323,7 @@
       <c r="AA982" s="12"/>
       <c r="AB982" s="12"/>
     </row>
-    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="9"/>
       <c r="B983" s="9"/>
       <c r="C983" s="9"/>
@@ -30285,7 +30353,7 @@
       <c r="AA983" s="12"/>
       <c r="AB983" s="12"/>
     </row>
-    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="9"/>
       <c r="B984" s="9"/>
       <c r="C984" s="9"/>
@@ -30315,7 +30383,7 @@
       <c r="AA984" s="12"/>
       <c r="AB984" s="12"/>
     </row>
-    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="9"/>
       <c r="B985" s="9"/>
       <c r="C985" s="9"/>
@@ -30345,7 +30413,7 @@
       <c r="AA985" s="12"/>
       <c r="AB985" s="12"/>
     </row>
-    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="9"/>
       <c r="B986" s="9"/>
       <c r="C986" s="9"/>
@@ -30375,7 +30443,7 @@
       <c r="AA986" s="12"/>
       <c r="AB986" s="12"/>
     </row>
-    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="9"/>
       <c r="B987" s="9"/>
       <c r="C987" s="9"/>
@@ -30405,7 +30473,7 @@
       <c r="AA987" s="12"/>
       <c r="AB987" s="12"/>
     </row>
-    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="9"/>
       <c r="B988" s="9"/>
       <c r="C988" s="9"/>
@@ -30435,7 +30503,7 @@
       <c r="AA988" s="12"/>
       <c r="AB988" s="12"/>
     </row>
-    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="9"/>
       <c r="B989" s="9"/>
       <c r="C989" s="9"/>
@@ -30465,7 +30533,7 @@
       <c r="AA989" s="12"/>
       <c r="AB989" s="12"/>
     </row>
-    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="9"/>
       <c r="B990" s="9"/>
       <c r="C990" s="9"/>
@@ -30495,7 +30563,7 @@
       <c r="AA990" s="12"/>
       <c r="AB990" s="12"/>
     </row>
-    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="9"/>
       <c r="B991" s="9"/>
       <c r="C991" s="9"/>
@@ -30525,7 +30593,7 @@
       <c r="AA991" s="12"/>
       <c r="AB991" s="12"/>
     </row>
-    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="9"/>
       <c r="B992" s="9"/>
       <c r="C992" s="9"/>
@@ -30555,7 +30623,7 @@
       <c r="AA992" s="12"/>
       <c r="AB992" s="12"/>
     </row>
-    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="9"/>
       <c r="B993" s="9"/>
       <c r="C993" s="9"/>
@@ -30585,7 +30653,7 @@
       <c r="AA993" s="12"/>
       <c r="AB993" s="12"/>
     </row>
-    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="9"/>
       <c r="B994" s="9"/>
       <c r="C994" s="9"/>
@@ -30615,7 +30683,7 @@
       <c r="AA994" s="12"/>
       <c r="AB994" s="12"/>
     </row>
-    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="9"/>
       <c r="B995" s="9"/>
       <c r="C995" s="9"/>
@@ -30645,7 +30713,7 @@
       <c r="AA995" s="12"/>
       <c r="AB995" s="12"/>
     </row>
-    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="9"/>
       <c r="B996" s="9"/>
       <c r="C996" s="9"/>
@@ -30675,7 +30743,7 @@
       <c r="AA996" s="12"/>
       <c r="AB996" s="12"/>
     </row>
-    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="9"/>
       <c r="B997" s="9"/>
       <c r="C997" s="9"/>
@@ -30705,7 +30773,7 @@
       <c r="AA997" s="12"/>
       <c r="AB997" s="12"/>
     </row>
-    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="9"/>
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
@@ -30735,7 +30803,7 @@
       <c r="AA998" s="12"/>
       <c r="AB998" s="12"/>
     </row>
-    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="9"/>
       <c r="B999" s="9"/>
       <c r="C999" s="9"/>
@@ -30765,7 +30833,7 @@
       <c r="AA999" s="12"/>
       <c r="AB999" s="12"/>
     </row>
-    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="9"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="9"/>
@@ -30795,7 +30863,7 @@
       <c r="AA1000" s="12"/>
       <c r="AB1000" s="12"/>
     </row>
-    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="9"/>
       <c r="B1001" s="9"/>
       <c r="C1001" s="9"/>
@@ -30825,7 +30893,7 @@
       <c r="AA1001" s="12"/>
       <c r="AB1001" s="12"/>
     </row>
-    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="9"/>
       <c r="B1002" s="9"/>
       <c r="C1002" s="9"/>
@@ -30855,7 +30923,7 @@
       <c r="AA1002" s="12"/>
       <c r="AB1002" s="12"/>
     </row>
-    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="9"/>
       <c r="B1003" s="9"/>
       <c r="C1003" s="9"/>
@@ -30885,7 +30953,7 @@
       <c r="AA1003" s="12"/>
       <c r="AB1003" s="12"/>
     </row>
-    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="9"/>
       <c r="B1004" s="9"/>
       <c r="C1004" s="9"/>
@@ -30915,7 +30983,7 @@
       <c r="AA1004" s="12"/>
       <c r="AB1004" s="12"/>
     </row>
-    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="9"/>
       <c r="B1005" s="9"/>
       <c r="C1005" s="9"/>
@@ -30945,7 +31013,7 @@
       <c r="AA1005" s="12"/>
       <c r="AB1005" s="12"/>
     </row>
-    <row r="1006" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1006" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="9"/>
       <c r="B1006" s="9"/>
       <c r="C1006" s="9"/>
@@ -30976,7 +31044,7 @@
       <c r="AB1006" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B4"/>
+  <autoFilter ref="A2:B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -30986,24 +31054,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
@@ -31013,7 +31081,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -31033,7 +31101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="108.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>0</v>
       </c>
@@ -31043,7 +31111,7 @@
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" ht="74.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -31052,7 +31120,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -31062,7 +31130,7 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -31070,7 +31138,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -31078,7 +31146,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
     </row>
-    <row r="10" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="18"/>
@@ -31086,7 +31154,7 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -31094,7 +31162,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -31102,7 +31170,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -31110,7 +31178,7 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -31118,7 +31186,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -31126,7 +31194,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -31134,7 +31202,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -31142,7 +31210,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -31156,23 +31224,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
@@ -31182,7 +31250,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -31202,7 +31270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -31212,7 +31280,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>6</v>
       </c>
@@ -31220,7 +31288,7 @@
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="58.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>7</v>
       </c>
@@ -31230,29 +31298,29 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -31266,24 +31334,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="6" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
@@ -31293,7 +31361,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -31313,7 +31381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>8</v>
       </c>
@@ -31323,7 +31391,7 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:6" ht="83.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="83.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>9</v>
       </c>
@@ -31333,7 +31401,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="32">
         <v>10</v>
       </c>
@@ -31343,7 +31411,7 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>11</v>
       </c>
@@ -31353,10 +31421,10 @@
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
     </row>
-    <row r="8" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -31364,4 +31432,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440CD0C-7BA1-4A95-AAFC-F5A35177AB64}">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36">
+        <v>4</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36">
+        <v>3</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36">
+        <v>3</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36">
+        <v>4</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekeehnen/Documents/Project-5-6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekeehnen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19280"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19300"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
     <sheet name="SPRINT 1 BACKLOG" sheetId="2" r:id="rId2"/>
     <sheet name="SPRINT 2 BACKLOG" sheetId="3" r:id="rId3"/>
     <sheet name="SPRINT 3 BACKLOG" sheetId="4" r:id="rId4"/>
+    <sheet name="Requirements" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRODUCT BACKLOG'!$A$2:$B$4</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -125,22 +126,79 @@
     <t>A registered user is able to see visitors history ( recently seen products and purchaced items)</t>
   </si>
   <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>A user is able to make a account with his/her email.</t>
+  </si>
+  <si>
+    <t>A user is able to filter and find products in the webshop.</t>
+  </si>
+  <si>
+    <t>A user is able to save a product in his/her favorite list.</t>
+  </si>
+  <si>
+    <t>A registered user is able to purchase a product.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view his/her purchase history.</t>
+  </si>
+  <si>
+    <t>The admin is able to delete products from the webshop.</t>
+  </si>
+  <si>
+    <t>The admin is able to update and change current products in the webshop.</t>
+  </si>
+  <si>
+    <t>The admin is able to add new products to the webshop.</t>
+  </si>
+  <si>
+    <t>The webshop must contain products entered by the admin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional </t>
+  </si>
+  <si>
+    <t>Non-Functional</t>
+  </si>
+  <si>
+    <t>The system is able to see al purchased products.</t>
+  </si>
+  <si>
+    <t>The webshop must delete the purchased products from the database.</t>
+  </si>
+  <si>
+    <t>The webshop must work an all platforms.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view information including the purchase (Order status, order confirmation etc.).</t>
+  </si>
+  <si>
+    <t>The system is able to record a registered user purchases on the webshop.</t>
+  </si>
+  <si>
+    <t>The admin is able to see the amount op products in stock.</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>database/interface</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>interface</t>
-  </si>
-  <si>
-    <t>database/interface</t>
   </si>
   <si>
     <t>purchace</t>
@@ -153,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -215,6 +273,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -320,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -415,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -741,7 +809,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -757,10 +825,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="12"/>
@@ -839,10 +907,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="12"/>
@@ -877,10 +945,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="12"/>
@@ -915,10 +983,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="12"/>
@@ -953,10 +1021,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="12"/>
@@ -991,10 +1059,10 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="12"/>
@@ -1029,10 +1097,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1067,10 +1135,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1104,10 +1172,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="12"/>
@@ -1142,10 +1210,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="12"/>
@@ -1180,10 +1248,10 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="12"/>
@@ -1218,10 +1286,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="12"/>
@@ -1256,10 +1324,10 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1293,10 +1361,10 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1328,10 +1396,10 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="12"/>
@@ -1365,6 +1433,12 @@
       <c r="B17" t="s">
         <v>28</v>
       </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -1395,8 +1469,6 @@
         <v>15</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
       <c r="E18" s="8"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -1427,8 +1499,6 @@
         <v>16</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
       <c r="E19" s="8"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -1459,8 +1529,6 @@
         <v>17</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -1520,8 +1588,6 @@
         <v>19</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1552,8 +1618,6 @@
         <v>20</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -1584,8 +1648,6 @@
         <v>21</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -1615,7 +1677,6 @@
       <c r="A25" s="19">
         <v>22</v>
       </c>
-      <c r="D25" s="9"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -31080,7 +31141,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31094,10 +31155,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -31169,8 +31230,8 @@
       <c r="F7" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -31263,10 +31324,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -31374,10 +31435,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -31454,4 +31515,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33">
+        <v>4</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="33">
+        <v>3</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33">
+        <v>3</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="33">
+        <v>4</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="33">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>